--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A09_控除データリカバリー_補足資料.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A09_控除データリカバリー_補足資料.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_17901～18000\E_本稼動_17939【収益認識】定額協賛金\20_成果物\02 控除データリカバリー\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10230" activeTab="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10230" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="リカバリ実施時の処理の分岐" sheetId="5" r:id="rId1"/>
     <sheet name="リカバリ適用ルール" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">リカバリ実施時の処理の分岐!$A$1:$AA$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">リカバリ実施時の処理の分岐!$A$1:$AA$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">リカバリ適用ルール!$A$1:$AH$124</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="353">
   <si>
     <t>企業</t>
     <rPh sb="0" eb="2">
@@ -1355,25 +1360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　⇒リカバリが必要な場合は、取消を行ってから実施</t>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取消</t>
     <rPh sb="0" eb="2">
       <t>トリケシ</t>
@@ -1950,10 +1936,6 @@
   </si>
   <si>
     <t>2.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　開始期間から、当月月初までの定額控除データを各月分作成。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3061,6 +3043,97 @@
     <t>20200200004</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　　開始期間から、当月月初までの定額控除データを各月分作成。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　開始期間が月の途中であっても、その月は定額控除データの作成対象とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　業務日付が月初1日の場合は当月分は作成しない。(当日の夜間処理の定額控除処理で作成されるため)</t>
+    <rPh sb="2" eb="6">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲッショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>トウゲツブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ヤカンショリ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>テイガクコウジョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　⇒リカバリが必要な場合は、取消を行ってから実施 ※問屋未収については、控除マスタ削除時に取消の控除データが作成されるため、支払伝票の取消は不要</t>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トンヤミシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サクジョジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>シハライデンピョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3071,7 +3144,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3452,6 +3525,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF00B0F0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4920,7 +5000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5608,6 +5688,9 @@
     <xf numFmtId="0" fontId="44" fillId="45" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5635,12 +5718,303 @@
     <xf numFmtId="0" fontId="45" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="34" fillId="32" borderId="30" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="34" fillId="32" borderId="30" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="41" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5651,297 +6025,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="35" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="35" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="35" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="34" fillId="32" borderId="30" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="34" fillId="32" borderId="30" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6004,9 +6087,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6018,13 +6110,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6072,13 +6164,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6126,13 +6218,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6178,13 +6270,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6236,13 +6328,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6294,13 +6386,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6346,13 +6438,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6404,13 +6496,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6462,13 +6554,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6520,13 +6612,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6578,13 +6670,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6636,13 +6728,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8923,7 +9015,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8965,7 +9057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9000,7 +9092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9209,11 +9301,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U112"/>
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A2:U114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A82" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -9265,12 +9358,12 @@
     </row>
     <row r="5" spans="1:19">
       <c r="B5" s="146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="146" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="145" customFormat="1">
@@ -9304,7 +9397,7 @@
     <row r="11" spans="1:19" s="149" customFormat="1" ht="12.75" thickBot="1">
       <c r="A11" s="148"/>
       <c r="B11" s="148" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11" s="148"/>
       <c r="D11" s="148"/>
@@ -9328,7 +9421,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M12" s="147"/>
       <c r="N12" s="147"/>
@@ -9339,17 +9432,17 @@
       <c r="S12" s="147"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="230" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="153" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="231" t="s">
+      <c r="D13" s="232" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M13" s="147"/>
       <c r="O13" s="147"/>
@@ -9359,13 +9452,13 @@
       <c r="S13" s="147"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="230"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="223" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="232"/>
+        <v>297</v>
+      </c>
+      <c r="D14" s="233"/>
       <c r="G14" s="146" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M14" s="147"/>
       <c r="N14" s="147"/>
@@ -9376,11 +9469,11 @@
       <c r="S14" s="147"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="230"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="223" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="232"/>
+        <v>298</v>
+      </c>
+      <c r="D15" s="233"/>
       <c r="M15" s="147"/>
       <c r="N15" s="147"/>
       <c r="O15" s="147"/>
@@ -9390,11 +9483,11 @@
       <c r="S15" s="147"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="230"/>
+      <c r="B16" s="231"/>
       <c r="C16" s="223" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="232"/>
+        <v>299</v>
+      </c>
+      <c r="D16" s="233"/>
       <c r="G16" s="147"/>
       <c r="M16" s="147"/>
       <c r="N16" s="147"/>
@@ -9405,13 +9498,13 @@
       <c r="S16" s="147"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="231" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="223" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="233" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="234" t="s">
         <v>163</v>
       </c>
       <c r="G17" s="147"/>
@@ -9424,11 +9517,11 @@
       <c r="S17" s="147"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="230"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="223" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="233"/>
+        <v>297</v>
+      </c>
+      <c r="D18" s="234"/>
       <c r="M18" s="147"/>
       <c r="N18" s="147"/>
       <c r="O18" s="147"/>
@@ -9438,13 +9531,13 @@
       <c r="S18" s="147"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="230"/>
+      <c r="B19" s="231"/>
       <c r="C19" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="233"/>
+      <c r="D19" s="234"/>
       <c r="F19" s="146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M19" s="147"/>
       <c r="N19" s="147"/>
@@ -9455,13 +9548,13 @@
       <c r="S19" s="147"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="230"/>
+      <c r="B20" s="231"/>
       <c r="C20" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="233"/>
+      <c r="D20" s="234"/>
       <c r="G20" s="146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" s="147"/>
       <c r="N20" s="147"/>
@@ -9472,7 +9565,7 @@
       <c r="S20" s="147"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="237" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="154" t="s">
@@ -9482,7 +9575,7 @@
         <v>162</v>
       </c>
       <c r="G21" s="146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M21" s="147"/>
       <c r="O21" s="147"/>
@@ -9492,15 +9585,15 @@
       <c r="S21" s="147"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="237"/>
+      <c r="B22" s="238"/>
       <c r="C22" s="224" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M22" s="147"/>
       <c r="N22" s="147"/>
@@ -9511,7 +9604,7 @@
       <c r="S22" s="147"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="237"/>
+      <c r="B23" s="238"/>
       <c r="C23" s="223" t="s">
         <v>156</v>
       </c>
@@ -9520,7 +9613,7 @@
       </c>
       <c r="F23" s="147"/>
       <c r="G23" s="146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M23" s="147"/>
       <c r="N23" s="147"/>
@@ -9531,16 +9624,16 @@
       <c r="S23" s="147"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="237"/>
+      <c r="B24" s="238"/>
       <c r="C24" s="223" t="s">
         <v>160</v>
       </c>
       <c r="D24" s="226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="147"/>
       <c r="G24" s="146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" s="147"/>
       <c r="N24" s="147"/>
@@ -9551,7 +9644,7 @@
       <c r="S24" s="147"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="235" t="s">
         <v>160</v>
       </c>
       <c r="C25" s="154" t="s">
@@ -9562,7 +9655,7 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="146" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M25" s="147"/>
       <c r="N25" s="147"/>
@@ -9573,16 +9666,16 @@
       <c r="S25" s="147"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="230"/>
+      <c r="B26" s="231"/>
       <c r="C26" s="224" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" s="147"/>
       <c r="H26" s="146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M26" s="147"/>
       <c r="N26" s="147"/>
@@ -9593,7 +9686,7 @@
       <c r="S26" s="147"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="230"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="154" t="s">
         <v>156</v>
       </c>
@@ -9602,7 +9695,7 @@
       </c>
       <c r="F27" s="147"/>
       <c r="H27" s="146" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M27" s="147"/>
       <c r="N27" s="147"/>
@@ -9613,7 +9706,7 @@
       <c r="S27" s="147"/>
     </row>
     <row r="28" spans="2:19" ht="12.75" thickBot="1">
-      <c r="B28" s="235"/>
+      <c r="B28" s="236"/>
       <c r="C28" s="225" t="s">
         <v>160</v>
       </c>
@@ -9622,7 +9715,7 @@
       </c>
       <c r="F28" s="147"/>
       <c r="H28" s="146" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M28" s="147"/>
       <c r="N28" s="147"/>
@@ -9634,11 +9727,11 @@
     </row>
     <row r="29" spans="2:19" ht="15.75" customHeight="1">
       <c r="B29" s="146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F29" s="147"/>
       <c r="H29" s="146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M29" s="147"/>
       <c r="N29" s="147"/>
@@ -9650,12 +9743,12 @@
     </row>
     <row r="30" spans="2:19" ht="18.75" customHeight="1">
       <c r="B30" s="146" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F30" s="147"/>
       <c r="G30" s="147"/>
       <c r="H30" s="146" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M30" s="147"/>
       <c r="N30" s="147"/>
@@ -9667,11 +9760,11 @@
     </row>
     <row r="31" spans="2:19" ht="18.75" customHeight="1">
       <c r="B31" s="146" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F31" s="147"/>
       <c r="G31" s="147" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M31" s="147"/>
       <c r="N31" s="147"/>
@@ -9684,7 +9777,7 @@
     <row r="32" spans="2:19" ht="18.75" customHeight="1">
       <c r="F32" s="147"/>
       <c r="G32" s="147" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="M32" s="147"/>
       <c r="N32" s="147"/>
@@ -9694,7 +9787,11 @@
       <c r="R32" s="147"/>
       <c r="S32" s="147"/>
     </row>
-    <row r="33" spans="3:21" ht="18.75" customHeight="1">
+    <row r="33" spans="3:20" ht="18.75" customHeight="1">
+      <c r="F33" s="147"/>
+      <c r="G33" s="229" t="s">
+        <v>350</v>
+      </c>
       <c r="M33" s="147"/>
       <c r="N33" s="147"/>
       <c r="O33" s="147"/>
@@ -9703,9 +9800,10 @@
       <c r="R33" s="147"/>
       <c r="S33" s="147"/>
     </row>
-    <row r="34" spans="3:21" ht="18.75" customHeight="1">
-      <c r="C34" s="148" t="s">
-        <v>287</v>
+    <row r="34" spans="3:20" ht="18.75" customHeight="1">
+      <c r="F34" s="147"/>
+      <c r="G34" s="229" t="s">
+        <v>351</v>
       </c>
       <c r="M34" s="147"/>
       <c r="N34" s="147"/>
@@ -9715,10 +9813,7 @@
       <c r="R34" s="147"/>
       <c r="S34" s="147"/>
     </row>
-    <row r="35" spans="3:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C35" s="148" t="s">
-        <v>276</v>
-      </c>
+    <row r="35" spans="3:20" ht="18.75" customHeight="1">
       <c r="M35" s="147"/>
       <c r="N35" s="147"/>
       <c r="O35" s="147"/>
@@ -9727,1180 +9822,1204 @@
       <c r="R35" s="147"/>
       <c r="S35" s="147"/>
     </row>
-    <row r="36" spans="3:21" ht="12.75" thickBot="1">
-      <c r="C36" s="148"/>
-      <c r="D36" s="203" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="205"/>
-    </row>
-    <row r="37" spans="3:21">
-      <c r="C37" s="148"/>
-      <c r="D37" s="178" t="s">
+    <row r="36" spans="3:20" ht="18.75" customHeight="1">
+      <c r="C36" s="148" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
+      <c r="R36" s="147"/>
+      <c r="S36" s="147"/>
+    </row>
+    <row r="37" spans="3:20" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C37" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="147"/>
+      <c r="R37" s="147"/>
+      <c r="S37" s="147"/>
+    </row>
+    <row r="38" spans="3:20" ht="12.75" thickBot="1">
+      <c r="C38" s="148"/>
+      <c r="D38" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="205"/>
+    </row>
+    <row r="39" spans="3:20">
+      <c r="C39" s="148"/>
+      <c r="D39" s="178" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="208" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="210" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="208" t="s">
-        <v>334</v>
-      </c>
-      <c r="F37" s="210" t="s">
+      <c r="G39" s="179"/>
+    </row>
+    <row r="40" spans="3:20" ht="12.75" thickBot="1">
+      <c r="C40" s="148"/>
+      <c r="D40" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="209" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="211" t="s">
         <v>322</v>
       </c>
-      <c r="G37" s="179"/>
-    </row>
-    <row r="38" spans="3:21" ht="12.75" thickBot="1">
-      <c r="C38" s="148"/>
-      <c r="D38" s="172" t="s">
-        <v>323</v>
-      </c>
-      <c r="E38" s="209" t="s">
+      <c r="G40" s="180"/>
+    </row>
+    <row r="41" spans="3:20">
+      <c r="C41" s="148" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20">
+      <c r="C42" s="147"/>
+      <c r="D42" s="148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="F38" s="211" t="s">
+    </row>
+    <row r="44" spans="3:20">
+      <c r="C44" s="147"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="146" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="C45" s="147"/>
+      <c r="D45" s="148" t="s">
+        <v>303</v>
+      </c>
+      <c r="T45" s="146"/>
+    </row>
+    <row r="46" spans="3:20">
+      <c r="C46" s="147"/>
+      <c r="E46" s="146" t="s">
         <v>324</v>
       </c>
-      <c r="G38" s="180"/>
-    </row>
-    <row r="39" spans="3:21">
-      <c r="C39" s="148" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21">
-      <c r="C40" s="147"/>
-      <c r="D40" s="148" t="s">
+      <c r="T46" s="146"/>
+    </row>
+    <row r="47" spans="3:20">
+      <c r="C47" s="147"/>
+      <c r="E47" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="T47" s="146"/>
+    </row>
+    <row r="48" spans="3:20">
+      <c r="D48" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="K48" s="146" t="s">
+        <v>329</v>
+      </c>
+      <c r="T48" s="146"/>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="D49" s="177" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="177" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="41" spans="3:21">
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="146" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21">
-      <c r="C42" s="147"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="146" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21">
-      <c r="C43" s="147"/>
-      <c r="D43" s="148" t="s">
-        <v>305</v>
-      </c>
-      <c r="T43" s="146"/>
-    </row>
-    <row r="44" spans="3:21">
-      <c r="C44" s="147"/>
-      <c r="E44" s="146" t="s">
-        <v>326</v>
-      </c>
-      <c r="T44" s="146"/>
-    </row>
-    <row r="45" spans="3:21">
-      <c r="C45" s="147"/>
-      <c r="E45" s="146" t="s">
-        <v>274</v>
-      </c>
-      <c r="T45" s="146"/>
-    </row>
-    <row r="46" spans="3:21">
-      <c r="D46" s="146" t="s">
+      <c r="F49" s="177" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="K46" s="146" t="s">
-        <v>331</v>
-      </c>
-      <c r="T46" s="146"/>
-    </row>
-    <row r="47" spans="3:21">
-      <c r="D47" s="177" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="177" t="s">
-        <v>308</v>
-      </c>
-      <c r="F47" s="177" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="177" t="s">
+      <c r="I49" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="I47" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="J47" s="177" t="s">
-        <v>264</v>
-      </c>
-      <c r="K47" s="177" t="s">
+      <c r="K49" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="L49" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="L47" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="T47" s="146"/>
-    </row>
-    <row r="48" spans="3:21">
-      <c r="D48" s="171" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48" s="171" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="185" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H48" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I48" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J48" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="K48" s="201" t="s">
-        <v>275</v>
-      </c>
-      <c r="L48" s="171"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-    </row>
-    <row r="49" spans="3:21">
-      <c r="D49" s="171" t="s">
-        <v>312</v>
-      </c>
-      <c r="E49" s="171" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="185" t="s">
-        <v>328</v>
-      </c>
-      <c r="G49" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H49" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I49" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J49" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="K49" s="201" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="171"/>
       <c r="T49" s="146"/>
-      <c r="U49" s="146"/>
     </row>
     <row r="50" spans="3:21">
       <c r="D50" s="171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E50" s="171" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F50" s="185" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G50" s="176">
-        <v>43992</v>
+        <v>43952</v>
       </c>
       <c r="H50" s="171" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I50" s="171" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J50" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="K50" s="171" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="K50" s="201" t="s">
+        <v>273</v>
       </c>
       <c r="L50" s="171"/>
       <c r="T50" s="146"/>
+      <c r="U50" s="146"/>
     </row>
     <row r="51" spans="3:21">
       <c r="D51" s="171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E51" s="171" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F51" s="185" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G51" s="176">
-        <v>43992</v>
+        <v>43952</v>
       </c>
       <c r="H51" s="171" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I51" s="171" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J51" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="201" t="s">
         <v>273</v>
-      </c>
-      <c r="K51" s="171" t="s">
-        <v>266</v>
       </c>
       <c r="L51" s="171"/>
       <c r="T51" s="146"/>
-    </row>
-    <row r="53" spans="3:21" ht="12.75" thickBot="1">
-      <c r="C53" s="148" t="s">
+      <c r="U51" s="146"/>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="D52" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="F52" s="185" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H52" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L52" s="171"/>
+      <c r="T52" s="146"/>
+    </row>
+    <row r="53" spans="3:21">
+      <c r="D53" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="171" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" s="185" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H53" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I53" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="K53" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L53" s="171"/>
+      <c r="T53" s="146"/>
+    </row>
+    <row r="55" spans="3:21" ht="12.75" thickBot="1">
+      <c r="C55" s="148" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" ht="12.75" thickBot="1">
+      <c r="D56" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="204"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="205"/>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="D57" s="202" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="208" t="s">
+        <v>332</v>
+      </c>
+      <c r="F57" s="210" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" s="182" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="D58" s="181" t="s">
+        <v>312</v>
+      </c>
+      <c r="E58" s="171" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="183"/>
+    </row>
+    <row r="59" spans="3:21" ht="12.75" thickBot="1">
+      <c r="D59" s="207" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="214" t="s">
+        <v>319</v>
+      </c>
+      <c r="F59" s="213" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" ht="12.75" thickBot="1">
-      <c r="D54" s="203" t="s">
-        <v>294</v>
-      </c>
-      <c r="E54" s="204"/>
-      <c r="F54" s="204"/>
-      <c r="G54" s="205"/>
-    </row>
-    <row r="55" spans="3:21">
-      <c r="D55" s="202" t="s">
-        <v>313</v>
-      </c>
-      <c r="E55" s="208" t="s">
+      <c r="G59" s="206" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="D61" s="148" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21">
+      <c r="D62" s="148" t="s">
         <v>334</v>
       </c>
-      <c r="F55" s="210" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="182" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21">
-      <c r="D56" s="181" t="s">
-        <v>314</v>
-      </c>
-      <c r="E56" s="171" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" s="212" t="s">
-        <v>324</v>
-      </c>
-      <c r="G56" s="183"/>
-    </row>
-    <row r="57" spans="3:21" ht="12.75" thickBot="1">
-      <c r="D57" s="207" t="s">
-        <v>315</v>
-      </c>
-      <c r="E57" s="214" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" s="213" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="206" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21">
-      <c r="D59" s="148" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21">
-      <c r="D60" s="148" t="s">
+    </row>
+    <row r="63" spans="3:21">
+      <c r="D63" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" s="177"/>
+      <c r="F63" s="177" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="H63" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="I63" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J63" s="177" t="s">
+        <v>262</v>
+      </c>
+      <c r="K63" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="L63" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="T63" s="146"/>
+    </row>
+    <row r="64" spans="3:21">
+      <c r="D64" s="217" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="186" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" s="185" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="61" spans="3:21">
-      <c r="D61" s="177" t="s">
+      <c r="G64" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H64" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="177"/>
-      <c r="F61" s="177" t="s">
-        <v>285</v>
-      </c>
-      <c r="G61" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="H61" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="I61" s="177" t="s">
+      <c r="I64" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J64" s="171" t="s">
         <v>268</v>
       </c>
-      <c r="J61" s="177" t="s">
-        <v>264</v>
-      </c>
-      <c r="K61" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="L61" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="T61" s="146"/>
-    </row>
-    <row r="62" spans="3:21">
-      <c r="D62" s="217" t="s">
-        <v>311</v>
-      </c>
-      <c r="E62" s="186" t="s">
-        <v>313</v>
-      </c>
-      <c r="F62" s="185" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="176">
+      <c r="K64" s="216" t="s">
+        <v>273</v>
+      </c>
+      <c r="L64" s="171"/>
+      <c r="M64" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="T64" s="146"/>
+    </row>
+    <row r="65" spans="3:20">
+      <c r="D65" s="217" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="171" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="185" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="176">
         <v>43952</v>
       </c>
-      <c r="H62" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I62" s="171" t="s">
+      <c r="H65" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I65" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="J62" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="K62" s="216" t="s">
-        <v>275</v>
-      </c>
-      <c r="L62" s="171"/>
-      <c r="M62" s="146" t="s">
-        <v>279</v>
-      </c>
-      <c r="T62" s="146"/>
-    </row>
-    <row r="63" spans="3:21">
-      <c r="D63" s="217" t="s">
-        <v>311</v>
-      </c>
-      <c r="E63" s="171" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" s="185" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H63" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I63" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J63" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="K63" s="216" t="s">
-        <v>275</v>
-      </c>
-      <c r="L63" s="171"/>
-      <c r="T63" s="146"/>
-    </row>
-    <row r="64" spans="3:21">
-      <c r="D64" s="190" t="s">
-        <v>311</v>
-      </c>
-      <c r="E64" s="198" t="s">
-        <v>313</v>
-      </c>
-      <c r="F64" s="191" t="s">
-        <v>329</v>
-      </c>
-      <c r="G64" s="192">
-        <v>43992</v>
-      </c>
-      <c r="H64" s="190" t="s">
-        <v>263</v>
-      </c>
-      <c r="I64" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="J64" s="190" t="s">
-        <v>271</v>
-      </c>
-      <c r="K64" s="190" t="s">
-        <v>266</v>
-      </c>
-      <c r="L64" s="215" t="s">
-        <v>281</v>
-      </c>
-      <c r="M64" s="146" t="s">
-        <v>280</v>
-      </c>
-      <c r="T64" s="146"/>
-    </row>
-    <row r="65" spans="3:20">
-      <c r="D65" s="171" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="171" t="s">
-        <v>314</v>
-      </c>
-      <c r="F65" s="185" t="s">
-        <v>339</v>
-      </c>
-      <c r="G65" s="176">
-        <v>43992</v>
-      </c>
-      <c r="H65" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" s="171" t="s">
-        <v>272</v>
-      </c>
-      <c r="J65" s="171" t="s">
+      <c r="K65" s="216" t="s">
         <v>273</v>
-      </c>
-      <c r="K65" s="171" t="s">
-        <v>266</v>
       </c>
       <c r="L65" s="171"/>
       <c r="T65" s="146"/>
     </row>
     <row r="66" spans="3:20">
+      <c r="D66" s="190" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="198" t="s">
+        <v>311</v>
+      </c>
+      <c r="F66" s="191" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="192">
+        <v>43992</v>
+      </c>
+      <c r="H66" s="190" t="s">
+        <v>261</v>
+      </c>
+      <c r="I66" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="190" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" s="190" t="s">
+        <v>264</v>
+      </c>
+      <c r="L66" s="215" t="s">
+        <v>279</v>
+      </c>
+      <c r="M66" s="146" t="s">
+        <v>278</v>
+      </c>
       <c r="T66" s="146"/>
     </row>
     <row r="67" spans="3:20">
+      <c r="D67" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="171" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="G67" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H67" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J67" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L67" s="171"/>
       <c r="T67" s="146"/>
     </row>
     <row r="68" spans="3:20">
-      <c r="D68" s="148" t="s">
-        <v>337</v>
-      </c>
       <c r="T68" s="146"/>
     </row>
     <row r="69" spans="3:20">
-      <c r="D69" s="146" t="s">
-        <v>284</v>
-      </c>
       <c r="T69" s="146"/>
     </row>
     <row r="70" spans="3:20">
       <c r="D70" s="148" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="T70" s="146"/>
     </row>
     <row r="71" spans="3:20">
-      <c r="D71" s="216" t="s">
+      <c r="D71" s="146" t="s">
+        <v>282</v>
+      </c>
+      <c r="T71" s="146"/>
+    </row>
+    <row r="72" spans="3:20">
+      <c r="D72" s="148" t="s">
+        <v>338</v>
+      </c>
+      <c r="T72" s="146"/>
+    </row>
+    <row r="73" spans="3:20">
+      <c r="D73" s="216" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="187" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H73" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I73" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J73" s="171" t="s">
+        <v>280</v>
+      </c>
+      <c r="K73" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L73" s="171"/>
+      <c r="M73" s="146" t="s">
+        <v>341</v>
+      </c>
+      <c r="T73" s="146"/>
+    </row>
+    <row r="74" spans="3:20">
+      <c r="D74" s="216" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="188" t="s">
+        <v>328</v>
+      </c>
+      <c r="G74" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H74" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I74" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J74" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="K74" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L74" s="171"/>
+      <c r="M74" s="146" t="s">
+        <v>342</v>
+      </c>
+      <c r="T74" s="146"/>
+    </row>
+    <row r="75" spans="3:20">
+      <c r="T75" s="146"/>
+    </row>
+    <row r="76" spans="3:20">
+      <c r="T76" s="146"/>
+    </row>
+    <row r="77" spans="3:20">
+      <c r="D77" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" s="177"/>
+      <c r="F77" s="177"/>
+      <c r="G77" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="H77" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J77" s="177" t="s">
+        <v>262</v>
+      </c>
+      <c r="K77" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="L77" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="T77" s="146"/>
+    </row>
+    <row r="78" spans="3:20">
+      <c r="C78" s="189" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" s="217" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="G78" s="219">
+        <v>43952</v>
+      </c>
+      <c r="H78" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="I78" s="217" t="s">
+        <v>267</v>
+      </c>
+      <c r="J78" s="217" t="s">
+        <v>268</v>
+      </c>
+      <c r="K78" s="216" t="s">
+        <v>273</v>
+      </c>
+      <c r="L78" s="171"/>
+      <c r="T78" s="146"/>
+    </row>
+    <row r="79" spans="3:20">
+      <c r="C79" s="189" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="216" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="217" t="s">
         <v>312</v>
       </c>
-      <c r="E71" s="171" t="s">
-        <v>315</v>
-      </c>
-      <c r="F71" s="187" t="s">
-        <v>328</v>
-      </c>
-      <c r="G71" s="176">
+      <c r="F79" s="187" t="s">
+        <v>326</v>
+      </c>
+      <c r="G79" s="219">
         <v>43952</v>
       </c>
-      <c r="H71" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I71" s="171" t="s">
+      <c r="H79" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="I79" s="217" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="171" t="s">
-        <v>282</v>
-      </c>
-      <c r="K71" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L71" s="171"/>
-      <c r="M71" s="146" t="s">
-        <v>343</v>
-      </c>
-      <c r="T71" s="146"/>
-    </row>
-    <row r="72" spans="3:20">
-      <c r="D72" s="216" t="s">
-        <v>316</v>
-      </c>
-      <c r="E72" s="171" t="s">
-        <v>315</v>
-      </c>
-      <c r="F72" s="188" t="s">
-        <v>330</v>
-      </c>
-      <c r="G72" s="176">
-        <v>43992</v>
-      </c>
-      <c r="H72" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I72" s="171" t="s">
-        <v>272</v>
-      </c>
-      <c r="J72" s="171" t="s">
-        <v>283</v>
-      </c>
-      <c r="K72" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L72" s="171"/>
-      <c r="M72" s="146" t="s">
-        <v>344</v>
-      </c>
-      <c r="T72" s="146"/>
-    </row>
-    <row r="73" spans="3:20">
-      <c r="T73" s="146"/>
-    </row>
-    <row r="74" spans="3:20">
-      <c r="T74" s="146"/>
-    </row>
-    <row r="75" spans="3:20">
-      <c r="D75" s="177" t="s">
-        <v>261</v>
-      </c>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="I75" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="J75" s="177" t="s">
-        <v>264</v>
-      </c>
-      <c r="K75" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="L75" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="T75" s="146"/>
-    </row>
-    <row r="76" spans="3:20">
-      <c r="C76" s="189" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="217" t="s">
-        <v>341</v>
-      </c>
-      <c r="E76" s="217" t="s">
-        <v>313</v>
-      </c>
-      <c r="F76" s="187" t="s">
-        <v>338</v>
-      </c>
-      <c r="G76" s="219">
-        <v>43952</v>
-      </c>
-      <c r="H76" s="217" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="217" t="s">
-        <v>269</v>
-      </c>
-      <c r="J76" s="217" t="s">
-        <v>270</v>
-      </c>
-      <c r="K76" s="216" t="s">
-        <v>275</v>
-      </c>
-      <c r="L76" s="171"/>
-      <c r="T76" s="146"/>
-    </row>
-    <row r="77" spans="3:20">
-      <c r="C77" s="189" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" s="216" t="s">
-        <v>317</v>
-      </c>
-      <c r="E77" s="217" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" s="187" t="s">
-        <v>328</v>
-      </c>
-      <c r="G77" s="219">
-        <v>43952</v>
-      </c>
-      <c r="H77" s="217" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" s="217" t="s">
-        <v>269</v>
-      </c>
-      <c r="J77" s="217" t="s">
-        <v>271</v>
-      </c>
-      <c r="K77" s="216" t="s">
-        <v>275</v>
-      </c>
-      <c r="L77" s="171"/>
-      <c r="T77" s="146"/>
-    </row>
-    <row r="78" spans="3:20">
-      <c r="D78" s="190" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="200" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78" s="191" t="s">
-        <v>329</v>
-      </c>
-      <c r="G78" s="192">
-        <v>43992</v>
-      </c>
-      <c r="H78" s="190" t="s">
-        <v>263</v>
-      </c>
-      <c r="I78" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="J78" s="190" t="s">
-        <v>271</v>
-      </c>
-      <c r="K78" s="190" t="s">
-        <v>266</v>
-      </c>
-      <c r="L78" s="215" t="s">
-        <v>66</v>
-      </c>
-      <c r="T78" s="146"/>
-    </row>
-    <row r="79" spans="3:20">
-      <c r="D79" s="216" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" s="171" t="s">
-        <v>314</v>
-      </c>
-      <c r="F79" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="G79" s="176">
-        <v>43992</v>
-      </c>
-      <c r="H79" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I79" s="171" t="s">
-        <v>272</v>
-      </c>
-      <c r="J79" s="171" t="s">
+      <c r="K79" s="216" t="s">
         <v>273</v>
-      </c>
-      <c r="K79" s="184" t="s">
-        <v>266</v>
       </c>
       <c r="L79" s="171"/>
       <c r="T79" s="146"/>
     </row>
     <row r="80" spans="3:20">
-      <c r="C80" s="189" t="s">
-        <v>278</v>
-      </c>
-      <c r="D80" s="216" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="171" t="s">
-        <v>315</v>
-      </c>
-      <c r="F80" s="188" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="176">
+      <c r="D80" s="190" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="191" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="192">
         <v>43992</v>
       </c>
-      <c r="H80" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I80" s="171" t="s">
-        <v>272</v>
-      </c>
-      <c r="J80" s="171" t="s">
-        <v>283</v>
-      </c>
-      <c r="K80" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L80" s="171"/>
-    </row>
-    <row r="83" spans="3:21" ht="18.75" customHeight="1">
-      <c r="C83" s="148" t="s">
-        <v>288</v>
-      </c>
-      <c r="M83" s="147"/>
-      <c r="N83" s="147"/>
-      <c r="O83" s="147"/>
-      <c r="P83" s="147"/>
-      <c r="Q83" s="147"/>
-      <c r="R83" s="147"/>
-      <c r="S83" s="147"/>
-    </row>
-    <row r="84" spans="3:21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C84" s="148" t="s">
+      <c r="H80" s="190" t="s">
+        <v>261</v>
+      </c>
+      <c r="I80" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="J80" s="190" t="s">
+        <v>269</v>
+      </c>
+      <c r="K80" s="190" t="s">
+        <v>264</v>
+      </c>
+      <c r="L80" s="215" t="s">
+        <v>66</v>
+      </c>
+      <c r="T80" s="146"/>
+    </row>
+    <row r="81" spans="3:21">
+      <c r="D81" s="216" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="171" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="G81" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H81" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I81" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J81" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="K81" s="184" t="s">
+        <v>264</v>
+      </c>
+      <c r="L81" s="171"/>
+      <c r="T81" s="146"/>
+    </row>
+    <row r="82" spans="3:21">
+      <c r="C82" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="M84" s="147"/>
-      <c r="N84" s="147"/>
-      <c r="O84" s="147"/>
-      <c r="P84" s="147"/>
-      <c r="Q84" s="147"/>
-      <c r="R84" s="147"/>
-      <c r="S84" s="147"/>
-    </row>
-    <row r="85" spans="3:21" ht="12.75" thickBot="1">
-      <c r="C85" s="148"/>
-      <c r="D85" s="173" t="s">
-        <v>258</v>
-      </c>
-      <c r="E85" s="174"/>
-      <c r="F85" s="174"/>
-      <c r="G85" s="175"/>
-    </row>
-    <row r="86" spans="3:21">
-      <c r="C86" s="148"/>
-      <c r="D86" s="178" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" s="208" t="s">
-        <v>334</v>
-      </c>
-      <c r="F86" s="210" t="s">
-        <v>322</v>
-      </c>
-      <c r="G86" s="179"/>
+      <c r="D82" s="216" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F82" s="188" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" s="176">
+        <v>43992</v>
+      </c>
+      <c r="H82" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I82" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="J82" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="K82" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L82" s="171"/>
+    </row>
+    <row r="85" spans="3:21" ht="18.75" customHeight="1">
+      <c r="C85" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="M85" s="147"/>
+      <c r="N85" s="147"/>
+      <c r="O85" s="147"/>
+      <c r="P85" s="147"/>
+      <c r="Q85" s="147"/>
+      <c r="R85" s="147"/>
+      <c r="S85" s="147"/>
+    </row>
+    <row r="86" spans="3:21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C86" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="M86" s="147"/>
+      <c r="N86" s="147"/>
+      <c r="O86" s="147"/>
+      <c r="P86" s="147"/>
+      <c r="Q86" s="147"/>
+      <c r="R86" s="147"/>
+      <c r="S86" s="147"/>
     </row>
     <row r="87" spans="3:21" ht="12.75" thickBot="1">
       <c r="C87" s="148"/>
-      <c r="D87" s="172" t="s">
+      <c r="D87" s="173" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="174"/>
+      <c r="F87" s="174"/>
+      <c r="G87" s="175"/>
+    </row>
+    <row r="88" spans="3:21">
+      <c r="C88" s="148"/>
+      <c r="D88" s="178" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" s="208" t="s">
+        <v>332</v>
+      </c>
+      <c r="F88" s="210" t="s">
+        <v>320</v>
+      </c>
+      <c r="G88" s="179"/>
+    </row>
+    <row r="89" spans="3:21" ht="12.75" thickBot="1">
+      <c r="C89" s="148"/>
+      <c r="D89" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="E89" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="E87" s="209" t="s">
-        <v>325</v>
-      </c>
-      <c r="F87" s="211" t="s">
-        <v>324</v>
-      </c>
-      <c r="G87" s="180"/>
-    </row>
-    <row r="88" spans="3:21">
-      <c r="C88" s="148" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="3:21">
-      <c r="C89" s="148"/>
-      <c r="D89" s="146" t="s">
-        <v>289</v>
-      </c>
+      <c r="F89" s="211" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="180"/>
     </row>
     <row r="90" spans="3:21">
-      <c r="C90" s="148"/>
-      <c r="D90" s="146" t="s">
-        <v>259</v>
+      <c r="C90" s="148" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="3:21">
       <c r="C91" s="148"/>
+      <c r="D91" s="146" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="92" spans="3:21">
       <c r="C92" s="148"/>
       <c r="D92" s="146" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="3:21">
       <c r="C93" s="148"/>
-      <c r="D93" s="177" t="s">
-        <v>261</v>
-      </c>
-      <c r="E93" s="177"/>
-      <c r="F93" s="177" t="s">
-        <v>285</v>
-      </c>
-      <c r="G93" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="H93" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="I93" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="J93" s="177" t="s">
-        <v>264</v>
-      </c>
-      <c r="K93" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="L93" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="T93" s="146"/>
-      <c r="U93" s="146"/>
     </row>
     <row r="94" spans="3:21">
       <c r="C94" s="148"/>
-      <c r="D94" s="217" t="s">
-        <v>341</v>
-      </c>
-      <c r="E94" s="171" t="s">
-        <v>309</v>
-      </c>
-      <c r="F94" s="218" t="s">
-        <v>328</v>
-      </c>
-      <c r="G94" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H94" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I94" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J94" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="K94" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L94" s="171"/>
-      <c r="T94" s="146"/>
-      <c r="U94" s="146"/>
+      <c r="D94" s="146" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="95" spans="3:21">
       <c r="C95" s="148"/>
-      <c r="D95" s="216" t="s">
-        <v>317</v>
-      </c>
-      <c r="E95" s="171" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" s="185" t="s">
-        <v>328</v>
-      </c>
-      <c r="G95" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H95" s="171" t="s">
+      <c r="D95" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="E95" s="177"/>
+      <c r="F95" s="177" t="s">
+        <v>283</v>
+      </c>
+      <c r="G95" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="H95" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="I95" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J95" s="177" t="s">
+        <v>262</v>
+      </c>
+      <c r="K95" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="I95" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J95" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="K95" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L95" s="171"/>
+      <c r="L95" s="177" t="s">
+        <v>66</v>
+      </c>
       <c r="T95" s="146"/>
       <c r="U95" s="146"/>
     </row>
     <row r="96" spans="3:21">
+      <c r="C96" s="148"/>
+      <c r="D96" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="F96" s="218" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H96" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I96" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J96" s="171" t="s">
+        <v>268</v>
+      </c>
+      <c r="K96" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L96" s="171"/>
       <c r="T96" s="146"/>
-    </row>
-    <row r="97" spans="3:20" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C97" s="148" t="s">
+      <c r="U96" s="146"/>
+    </row>
+    <row r="97" spans="3:21">
+      <c r="C97" s="148"/>
+      <c r="D97" s="216" t="s">
+        <v>315</v>
+      </c>
+      <c r="E97" s="171" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="185" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H97" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I97" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J97" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="K97" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L97" s="171"/>
+      <c r="T97" s="146"/>
+      <c r="U97" s="146"/>
+    </row>
+    <row r="98" spans="3:21">
+      <c r="T98" s="146"/>
+    </row>
+    <row r="99" spans="3:21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C99" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="M99" s="147"/>
+      <c r="N99" s="147"/>
+      <c r="O99" s="147"/>
+      <c r="P99" s="147"/>
+      <c r="Q99" s="147"/>
+      <c r="R99" s="147"/>
+      <c r="S99" s="147"/>
+    </row>
+    <row r="100" spans="3:21" ht="12.75" thickBot="1">
+      <c r="C100" s="148"/>
+      <c r="D100" s="173" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" s="174"/>
+      <c r="F100" s="174"/>
+      <c r="G100" s="222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21">
+      <c r="C101" s="148"/>
+      <c r="D101" s="178" t="s">
+        <v>318</v>
+      </c>
+      <c r="E101" s="208" t="s">
+        <v>332</v>
+      </c>
+      <c r="F101" s="220" t="s">
+        <v>343</v>
+      </c>
+      <c r="G101" s="179"/>
+    </row>
+    <row r="102" spans="3:21" ht="12.75" thickBot="1">
+      <c r="C102" s="148"/>
+      <c r="D102" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="E102" s="209" t="s">
+        <v>323</v>
+      </c>
+      <c r="F102" s="211" t="s">
+        <v>322</v>
+      </c>
+      <c r="G102" s="180"/>
+    </row>
+    <row r="103" spans="3:21">
+      <c r="C103" s="148"/>
+      <c r="T103" s="146"/>
+    </row>
+    <row r="104" spans="3:21">
+      <c r="D104" s="148" t="s">
+        <v>289</v>
+      </c>
+      <c r="T104" s="146"/>
+    </row>
+    <row r="105" spans="3:21">
+      <c r="D105" s="146" t="s">
+        <v>282</v>
+      </c>
+      <c r="T105" s="146"/>
+    </row>
+    <row r="106" spans="3:21">
+      <c r="D106" s="186" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106" s="201" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" s="187" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H106" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I106" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J106" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="K106" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L106" s="171"/>
+      <c r="M106" s="146" t="s">
         <v>290</v>
       </c>
-      <c r="M97" s="147"/>
-      <c r="N97" s="147"/>
-      <c r="O97" s="147"/>
-      <c r="P97" s="147"/>
-      <c r="Q97" s="147"/>
-      <c r="R97" s="147"/>
-      <c r="S97" s="147"/>
-    </row>
-    <row r="98" spans="3:20" ht="12.75" thickBot="1">
-      <c r="C98" s="148"/>
-      <c r="D98" s="173" t="s">
-        <v>347</v>
-      </c>
-      <c r="E98" s="174"/>
-      <c r="F98" s="174"/>
-      <c r="G98" s="222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="3:20">
-      <c r="C99" s="148"/>
-      <c r="D99" s="178" t="s">
-        <v>320</v>
-      </c>
-      <c r="E99" s="208" t="s">
-        <v>334</v>
-      </c>
-      <c r="F99" s="220" t="s">
-        <v>345</v>
-      </c>
-      <c r="G99" s="179"/>
-    </row>
-    <row r="100" spans="3:20" ht="12.75" thickBot="1">
-      <c r="C100" s="148"/>
-      <c r="D100" s="172" t="s">
-        <v>323</v>
-      </c>
-      <c r="E100" s="209" t="s">
-        <v>325</v>
-      </c>
-      <c r="F100" s="211" t="s">
-        <v>324</v>
-      </c>
-      <c r="G100" s="180"/>
-    </row>
-    <row r="101" spans="3:20">
-      <c r="C101" s="148"/>
-      <c r="T101" s="146"/>
-    </row>
-    <row r="102" spans="3:20">
-      <c r="D102" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="T102" s="146"/>
-    </row>
-    <row r="103" spans="3:20">
-      <c r="D103" s="146" t="s">
-        <v>284</v>
-      </c>
-      <c r="T103" s="146"/>
-    </row>
-    <row r="104" spans="3:20">
-      <c r="D104" s="186" t="s">
-        <v>319</v>
-      </c>
-      <c r="E104" s="201" t="s">
-        <v>309</v>
-      </c>
-      <c r="F104" s="187" t="s">
-        <v>328</v>
-      </c>
-      <c r="G104" s="176">
+      <c r="T106" s="146"/>
+    </row>
+    <row r="107" spans="3:21">
+      <c r="D107" s="199" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="221" t="s">
+        <v>308</v>
+      </c>
+      <c r="F107" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" s="176">
         <v>43952</v>
       </c>
-      <c r="H104" s="171" t="s">
+      <c r="H107" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I107" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J107" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="K107" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L107" s="171"/>
+      <c r="T107" s="146"/>
+    </row>
+    <row r="108" spans="3:21">
+      <c r="T108" s="146"/>
+    </row>
+    <row r="109" spans="3:21">
+      <c r="T109" s="146"/>
+    </row>
+    <row r="110" spans="3:21">
+      <c r="D110" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="E110" s="177"/>
+      <c r="F110" s="177" t="s">
+        <v>283</v>
+      </c>
+      <c r="G110" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="H110" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="I110" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J110" s="177" t="s">
+        <v>262</v>
+      </c>
+      <c r="K110" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="I104" s="171" t="s">
+      <c r="L110" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="T110" s="146"/>
+    </row>
+    <row r="111" spans="3:21">
+      <c r="D111" s="193" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="193" t="s">
+        <v>307</v>
+      </c>
+      <c r="F111" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="G111" s="196">
+        <v>43952</v>
+      </c>
+      <c r="H111" s="194" t="s">
+        <v>261</v>
+      </c>
+      <c r="I111" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="J111" s="194" t="s">
+        <v>268</v>
+      </c>
+      <c r="K111" s="194" t="s">
+        <v>264</v>
+      </c>
+      <c r="L111" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="M111" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="T111" s="146"/>
+    </row>
+    <row r="112" spans="3:21">
+      <c r="D112" s="193" t="s">
+        <v>315</v>
+      </c>
+      <c r="E112" s="193" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="196">
+        <v>43952</v>
+      </c>
+      <c r="H112" s="194" t="s">
+        <v>261</v>
+      </c>
+      <c r="I112" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="J112" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="J104" s="186" t="s">
-        <v>282</v>
-      </c>
-      <c r="K104" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L104" s="171"/>
-      <c r="M104" s="146" t="s">
-        <v>292</v>
-      </c>
-      <c r="T104" s="146"/>
-    </row>
-    <row r="105" spans="3:20">
-      <c r="D105" s="199" t="s">
-        <v>319</v>
-      </c>
-      <c r="E105" s="221" t="s">
-        <v>310</v>
-      </c>
-      <c r="F105" s="188" t="s">
-        <v>328</v>
-      </c>
-      <c r="G105" s="176">
+      <c r="K112" s="194" t="s">
+        <v>264</v>
+      </c>
+      <c r="L112" s="184" t="s">
+        <v>66</v>
+      </c>
+      <c r="M112" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="T112" s="146"/>
+    </row>
+    <row r="113" spans="3:12">
+      <c r="C113" s="189" t="s">
+        <v>276</v>
+      </c>
+      <c r="D113" s="186" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" s="201" t="s">
+        <v>307</v>
+      </c>
+      <c r="F113" s="187" t="s">
+        <v>326</v>
+      </c>
+      <c r="G113" s="176">
         <v>43952</v>
       </c>
-      <c r="H105" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I105" s="171" t="s">
+      <c r="H113" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I113" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J113" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="K113" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="L113" s="171"/>
+    </row>
+    <row r="114" spans="3:12">
+      <c r="C114" s="189" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="199" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114" s="221" t="s">
+        <v>308</v>
+      </c>
+      <c r="F114" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114" s="176">
+        <v>43952</v>
+      </c>
+      <c r="H114" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I114" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="J114" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="J105" s="199" t="s">
-        <v>271</v>
-      </c>
-      <c r="K105" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L105" s="171"/>
-      <c r="T105" s="146"/>
-    </row>
-    <row r="106" spans="3:20">
-      <c r="T106" s="146"/>
-    </row>
-    <row r="107" spans="3:20">
-      <c r="T107" s="146"/>
-    </row>
-    <row r="108" spans="3:20">
-      <c r="D108" s="177" t="s">
-        <v>261</v>
-      </c>
-      <c r="E108" s="177"/>
-      <c r="F108" s="177" t="s">
-        <v>285</v>
-      </c>
-      <c r="G108" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="H108" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="I108" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="J108" s="177" t="s">
+      <c r="K114" s="171" t="s">
         <v>264</v>
       </c>
-      <c r="K108" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="L108" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="T108" s="146"/>
-    </row>
-    <row r="109" spans="3:20">
-      <c r="D109" s="193" t="s">
-        <v>317</v>
-      </c>
-      <c r="E109" s="193" t="s">
-        <v>309</v>
-      </c>
-      <c r="F109" s="195" t="s">
-        <v>328</v>
-      </c>
-      <c r="G109" s="196">
-        <v>43952</v>
-      </c>
-      <c r="H109" s="194" t="s">
-        <v>263</v>
-      </c>
-      <c r="I109" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="J109" s="194" t="s">
-        <v>270</v>
-      </c>
-      <c r="K109" s="194" t="s">
-        <v>266</v>
-      </c>
-      <c r="L109" s="184" t="s">
-        <v>281</v>
-      </c>
-      <c r="M109" s="146" t="s">
-        <v>346</v>
-      </c>
-      <c r="T109" s="146"/>
-    </row>
-    <row r="110" spans="3:20">
-      <c r="D110" s="193" t="s">
-        <v>317</v>
-      </c>
-      <c r="E110" s="193" t="s">
-        <v>310</v>
-      </c>
-      <c r="F110" s="195" t="s">
-        <v>328</v>
-      </c>
-      <c r="G110" s="196">
-        <v>43952</v>
-      </c>
-      <c r="H110" s="194" t="s">
-        <v>263</v>
-      </c>
-      <c r="I110" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="J110" s="194" t="s">
-        <v>271</v>
-      </c>
-      <c r="K110" s="194" t="s">
-        <v>266</v>
-      </c>
-      <c r="L110" s="184" t="s">
-        <v>66</v>
-      </c>
-      <c r="M110" s="146" t="s">
-        <v>346</v>
-      </c>
-      <c r="T110" s="146"/>
-    </row>
-    <row r="111" spans="3:20">
-      <c r="C111" s="189" t="s">
-        <v>278</v>
-      </c>
-      <c r="D111" s="186" t="s">
-        <v>319</v>
-      </c>
-      <c r="E111" s="201" t="s">
-        <v>309</v>
-      </c>
-      <c r="F111" s="187" t="s">
-        <v>328</v>
-      </c>
-      <c r="G111" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H111" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I111" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J111" s="186" t="s">
-        <v>282</v>
-      </c>
-      <c r="K111" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L111" s="171"/>
-    </row>
-    <row r="112" spans="3:20">
-      <c r="C112" s="189" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="199" t="s">
-        <v>319</v>
-      </c>
-      <c r="E112" s="221" t="s">
-        <v>310</v>
-      </c>
-      <c r="F112" s="188" t="s">
-        <v>328</v>
-      </c>
-      <c r="G112" s="176">
-        <v>43952</v>
-      </c>
-      <c r="H112" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="I112" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="J112" s="199" t="s">
-        <v>271</v>
-      </c>
-      <c r="K112" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="L112" s="171"/>
+      <c r="L114" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10915,8 +11034,8 @@
   <pageMargins left="0.51181102362204722" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="33" max="26" man="1"/>
-    <brk id="82" max="26" man="1"/>
+    <brk id="35" max="26" man="1"/>
+    <brk id="84" max="26" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10926,9 +11045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -11014,10 +11131,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="J4" s="252" t="s">
+      <c r="J4" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="253"/>
+      <c r="K4" s="272"/>
       <c r="U4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11026,74 +11143,74 @@
       <c r="A5" s="2"/>
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="255"/>
-      <c r="V5" s="265" t="s">
+      <c r="J5" s="273"/>
+      <c r="K5" s="274"/>
+      <c r="V5" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265" t="s">
+      <c r="W5" s="270"/>
+      <c r="X5" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="265"/>
+      <c r="Y5" s="270"/>
+      <c r="Z5" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="270"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="2"/>
-      <c r="J6" s="276">
+      <c r="J6" s="331">
         <v>20200200001</v>
       </c>
-      <c r="K6" s="277"/>
+      <c r="K6" s="332"/>
       <c r="U6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="V6" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="V6" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="257"/>
-      <c r="X6" s="257"/>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="257"/>
-      <c r="AA6" s="257"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="239"/>
+      <c r="Y6" s="239"/>
+      <c r="Z6" s="239"/>
+      <c r="AA6" s="239"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="2"/>
       <c r="D7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="J7" s="244">
+      <c r="J7" s="329">
         <v>20200200002</v>
       </c>
-      <c r="K7" s="245"/>
+      <c r="K7" s="330"/>
       <c r="U7" s="157" t="s">
-        <v>239</v>
-      </c>
-      <c r="V7" s="257" t="s">
+        <v>238</v>
+      </c>
+      <c r="V7" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="239"/>
+      <c r="Y7" s="239"/>
+      <c r="Z7" s="239"/>
+      <c r="AA7" s="239"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="2"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
       <c r="U8" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
+        <v>237</v>
+      </c>
+      <c r="V8" s="239"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="239" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="239"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="2"/>
@@ -11105,16 +11222,16 @@
       <c r="G9" s="2"/>
       <c r="K9" s="3"/>
       <c r="U9" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="262"/>
-      <c r="Z9" s="261" t="s">
+        <v>348</v>
+      </c>
+      <c r="V9" s="262"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="262"/>
+      <c r="AA9" s="263"/>
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
@@ -11131,120 +11248,120 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
       <c r="V10" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="266" t="s">
+      <c r="E11" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="267"/>
-      <c r="O11" s="266" t="s">
+      <c r="F11" s="259"/>
+      <c r="O11" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="267"/>
+      <c r="P11" s="259"/>
     </row>
     <row r="12" spans="1:34">
       <c r="D12" s="2"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="271"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="261"/>
+      <c r="O12" s="260"/>
+      <c r="P12" s="261"/>
       <c r="U12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="2"/>
-      <c r="E13" s="272">
+      <c r="E13" s="291">
         <v>20200200001</v>
       </c>
-      <c r="F13" s="273"/>
-      <c r="O13" s="272">
+      <c r="F13" s="292"/>
+      <c r="O13" s="291">
         <v>20200200001</v>
       </c>
-      <c r="P13" s="273"/>
-      <c r="V13" s="265" t="s">
+      <c r="P13" s="292"/>
+      <c r="V13" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="W13" s="265"/>
-      <c r="X13" s="265" t="s">
+      <c r="W13" s="270"/>
+      <c r="X13" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="265"/>
-      <c r="Z13" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="265"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="270"/>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="2"/>
-      <c r="E14" s="244">
+      <c r="E14" s="329">
         <v>20200200002</v>
       </c>
-      <c r="F14" s="245"/>
-      <c r="O14" s="244">
+      <c r="F14" s="330"/>
+      <c r="O14" s="329">
         <v>20200200002</v>
       </c>
-      <c r="P14" s="245"/>
+      <c r="P14" s="330"/>
       <c r="U14" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="V14" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="V14" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
+      <c r="W14" s="239"/>
+      <c r="X14" s="239"/>
+      <c r="Y14" s="239"/>
+      <c r="Z14" s="239"/>
+      <c r="AA14" s="239"/>
     </row>
     <row r="15" spans="1:34" ht="13.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="E15" s="274">
+      <c r="E15" s="266">
         <v>20200200003</v>
       </c>
-      <c r="F15" s="275"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="281"/>
+      <c r="F15" s="267"/>
+      <c r="O15" s="248"/>
+      <c r="P15" s="249"/>
       <c r="U15" s="161" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="256" t="s">
+        <v>238</v>
+      </c>
+      <c r="V15" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="W15" s="256"/>
-      <c r="X15" s="257"/>
-      <c r="Y15" s="257"/>
-      <c r="Z15" s="257"/>
-      <c r="AA15" s="257"/>
+      <c r="W15" s="277"/>
+      <c r="X15" s="239"/>
+      <c r="Y15" s="239"/>
+      <c r="Z15" s="239"/>
+      <c r="AA15" s="239"/>
       <c r="AB15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="248"/>
-      <c r="F16" s="249"/>
-      <c r="O16" s="248"/>
-      <c r="P16" s="249"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="243"/>
+      <c r="O16" s="242"/>
+      <c r="P16" s="243"/>
       <c r="U16" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="V16" s="257"/>
-      <c r="W16" s="257"/>
-      <c r="X16" s="257" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y16" s="257"/>
-      <c r="Z16" s="257"/>
-      <c r="AA16" s="257"/>
+        <v>237</v>
+      </c>
+      <c r="V16" s="239"/>
+      <c r="W16" s="239"/>
+      <c r="X16" s="239" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y16" s="239"/>
+      <c r="Z16" s="239"/>
+      <c r="AA16" s="239"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="2"/>
@@ -11254,18 +11371,18 @@
       <c r="G17" s="2"/>
       <c r="P17" s="3"/>
       <c r="U17" s="118" t="s">
-        <v>349</v>
-      </c>
-      <c r="V17" s="256"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256" t="s">
+        <v>347</v>
+      </c>
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="277"/>
+      <c r="Y17" s="277"/>
+      <c r="Z17" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="AA17" s="256"/>
+      <c r="AA17" s="277"/>
       <c r="AB17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -11288,175 +11405,175 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="2"/>
-      <c r="B19" s="278" t="s">
+      <c r="B19" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="278"/>
-      <c r="D19" s="278" t="s">
+      <c r="C19" s="250"/>
+      <c r="D19" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="278"/>
-      <c r="F19" s="278" t="s">
+      <c r="E19" s="250"/>
+      <c r="F19" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="278"/>
-      <c r="H19" s="278" t="s">
+      <c r="G19" s="250"/>
+      <c r="H19" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="278"/>
-      <c r="L19" s="278" t="s">
+      <c r="I19" s="250"/>
+      <c r="L19" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="278"/>
-      <c r="N19" s="278" t="s">
+      <c r="M19" s="250"/>
+      <c r="N19" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278" t="s">
+      <c r="O19" s="250"/>
+      <c r="P19" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278" t="s">
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="278"/>
+      <c r="S19" s="250"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="2"/>
-      <c r="B20" s="279"/>
-      <c r="C20" s="279"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
-      <c r="L20" s="279"/>
-      <c r="M20" s="279"/>
-      <c r="N20" s="279"/>
-      <c r="O20" s="279"/>
-      <c r="P20" s="279"/>
-      <c r="Q20" s="279"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="279"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="251"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="2"/>
-      <c r="B21" s="272">
+      <c r="B21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="C21" s="273"/>
-      <c r="D21" s="272">
+      <c r="C21" s="292"/>
+      <c r="D21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="E21" s="273"/>
-      <c r="F21" s="272">
+      <c r="E21" s="292"/>
+      <c r="F21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="G21" s="273"/>
-      <c r="H21" s="272">
+      <c r="G21" s="292"/>
+      <c r="H21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="I21" s="273"/>
-      <c r="L21" s="272">
+      <c r="I21" s="292"/>
+      <c r="L21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="M21" s="273"/>
-      <c r="N21" s="272">
+      <c r="M21" s="292"/>
+      <c r="N21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="O21" s="273"/>
-      <c r="P21" s="272">
+      <c r="O21" s="292"/>
+      <c r="P21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="Q21" s="273"/>
-      <c r="R21" s="272">
+      <c r="Q21" s="292"/>
+      <c r="R21" s="291">
         <v>20200200001</v>
       </c>
-      <c r="S21" s="273"/>
+      <c r="S21" s="292"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="2"/>
-      <c r="B22" s="244">
+      <c r="B22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="C22" s="245"/>
-      <c r="D22" s="244">
+      <c r="C22" s="330"/>
+      <c r="D22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="E22" s="245"/>
-      <c r="F22" s="244">
+      <c r="E22" s="330"/>
+      <c r="F22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="G22" s="245"/>
-      <c r="H22" s="244">
+      <c r="G22" s="330"/>
+      <c r="H22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="I22" s="245"/>
-      <c r="L22" s="244">
+      <c r="I22" s="330"/>
+      <c r="L22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="M22" s="245"/>
-      <c r="N22" s="244">
+      <c r="M22" s="330"/>
+      <c r="N22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="O22" s="245"/>
-      <c r="P22" s="244">
+      <c r="O22" s="330"/>
+      <c r="P22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="Q22" s="245"/>
-      <c r="R22" s="244">
+      <c r="Q22" s="330"/>
+      <c r="R22" s="329">
         <v>20200200002</v>
       </c>
-      <c r="S22" s="245"/>
+      <c r="S22" s="330"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="2"/>
-      <c r="B23" s="250">
+      <c r="B23" s="293">
         <v>20200200003</v>
       </c>
-      <c r="C23" s="251"/>
-      <c r="D23" s="250">
+      <c r="C23" s="294"/>
+      <c r="D23" s="293">
         <v>20200200003</v>
       </c>
-      <c r="E23" s="251"/>
-      <c r="F23" s="250">
+      <c r="E23" s="294"/>
+      <c r="F23" s="293">
         <v>20200200003</v>
       </c>
-      <c r="G23" s="251"/>
-      <c r="H23" s="250">
+      <c r="G23" s="294"/>
+      <c r="H23" s="293">
         <v>20200200003</v>
       </c>
-      <c r="I23" s="251"/>
-      <c r="L23" s="280"/>
-      <c r="M23" s="281"/>
-      <c r="N23" s="280"/>
-      <c r="O23" s="281"/>
-      <c r="P23" s="280"/>
-      <c r="Q23" s="281"/>
-      <c r="R23" s="280"/>
-      <c r="S23" s="281"/>
+      <c r="I23" s="294"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="249"/>
+      <c r="N23" s="248"/>
+      <c r="O23" s="249"/>
+      <c r="P23" s="248"/>
+      <c r="Q23" s="249"/>
+      <c r="R23" s="248"/>
+      <c r="S23" s="249"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="2"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="325">
+      <c r="B24" s="242"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="278">
         <v>20200200004</v>
       </c>
-      <c r="G24" s="326"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="249"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="248"/>
-      <c r="O24" s="249"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="249"/>
-      <c r="R24" s="248"/>
-      <c r="S24" s="249"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="243"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="243"/>
+      <c r="N24" s="242"/>
+      <c r="O24" s="243"/>
+      <c r="P24" s="242"/>
+      <c r="Q24" s="243"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="243"/>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="2"/>
@@ -11505,7 +11622,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="129"/>
       <c r="C28" s="130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" s="130"/>
       <c r="E28" s="130"/>
@@ -11525,7 +11642,7 @@
     <row r="29" spans="1:28">
       <c r="B29" s="129"/>
       <c r="C29" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29" s="130"/>
       <c r="E29" s="130"/>
@@ -11560,7 +11677,7 @@
       <c r="P30" s="133"/>
       <c r="Q30" s="134"/>
     </row>
-    <row r="33" spans="1:34" ht="57">
+    <row r="33" spans="1:34" ht="75.75">
       <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
@@ -11663,7 +11780,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
@@ -11744,7 +11861,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
@@ -11825,7 +11942,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
@@ -11906,7 +12023,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
@@ -11987,7 +12104,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
@@ -12035,7 +12152,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X38" s="13" t="s">
         <v>56</v>
@@ -12050,7 +12167,7 @@
         <v>0.08</v>
       </c>
       <c r="AB38" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC38" s="13" t="s">
         <v>59</v>
@@ -12068,7 +12185,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
@@ -12116,7 +12233,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X39" s="13" t="s">
         <v>56</v>
@@ -12131,7 +12248,7 @@
         <v>0.08</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC39" s="13" t="s">
         <v>59</v>
@@ -12149,7 +12266,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
@@ -12197,7 +12314,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X40" s="13" t="s">
         <v>56</v>
@@ -12212,7 +12329,7 @@
         <v>0.08</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC40" s="13" t="s">
         <v>59</v>
@@ -12230,7 +12347,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
@@ -12278,7 +12395,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X41" s="13" t="s">
         <v>56</v>
@@ -12293,7 +12410,7 @@
         <v>0.08</v>
       </c>
       <c r="AB41" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC41" s="13" t="s">
         <v>59</v>
@@ -12311,7 +12428,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
@@ -12359,7 +12476,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X42" s="13" t="s">
         <v>56</v>
@@ -12374,7 +12491,7 @@
         <v>0.08</v>
       </c>
       <c r="AB42" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC42" s="13" t="s">
         <v>59</v>
@@ -12392,7 +12509,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
@@ -12440,7 +12557,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X43" s="13" t="s">
         <v>56</v>
@@ -12455,7 +12572,7 @@
         <v>0.08</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC43" s="13" t="s">
         <v>59</v>
@@ -12473,7 +12590,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
@@ -12521,7 +12638,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X44" s="13" t="s">
         <v>56</v>
@@ -12536,7 +12653,7 @@
         <v>0.08</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC44" s="13" t="s">
         <v>59</v>
@@ -12554,7 +12671,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
@@ -12602,7 +12719,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X45" s="13" t="s">
         <v>56</v>
@@ -12617,7 +12734,7 @@
         <v>0.08</v>
       </c>
       <c r="AB45" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC45" s="13" t="s">
         <v>59</v>
@@ -12717,7 +12834,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
@@ -12798,7 +12915,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
@@ -12879,7 +12996,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
@@ -12960,7 +13077,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
@@ -13044,7 +13161,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="163"/>
       <c r="E52" s="163" t="s">
@@ -13092,7 +13209,7 @@
       <c r="U52" s="163"/>
       <c r="V52" s="163"/>
       <c r="W52" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X52" s="163" t="s">
         <v>56</v>
@@ -13107,7 +13224,7 @@
         <v>0.08</v>
       </c>
       <c r="AB52" s="168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC52" s="163" t="s">
         <v>59</v>
@@ -13128,7 +13245,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="163"/>
       <c r="E53" s="163" t="s">
@@ -13176,7 +13293,7 @@
       <c r="U53" s="163"/>
       <c r="V53" s="163"/>
       <c r="W53" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X53" s="163" t="s">
         <v>56</v>
@@ -13191,7 +13308,7 @@
         <v>0.08</v>
       </c>
       <c r="AB53" s="168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC53" s="163" t="s">
         <v>59</v>
@@ -13212,7 +13329,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="163"/>
       <c r="E54" s="163" t="s">
@@ -13260,7 +13377,7 @@
       <c r="U54" s="163"/>
       <c r="V54" s="163"/>
       <c r="W54" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X54" s="163" t="s">
         <v>56</v>
@@ -13275,7 +13392,7 @@
         <v>0.08</v>
       </c>
       <c r="AB54" s="168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC54" s="163" t="s">
         <v>59</v>
@@ -13296,7 +13413,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="163"/>
       <c r="E55" s="163" t="s">
@@ -13344,7 +13461,7 @@
       <c r="U55" s="163"/>
       <c r="V55" s="163"/>
       <c r="W55" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X55" s="163" t="s">
         <v>56</v>
@@ -13359,7 +13476,7 @@
         <v>0.08</v>
       </c>
       <c r="AB55" s="168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC55" s="163" t="s">
         <v>59</v>
@@ -13377,7 +13494,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
@@ -13425,7 +13542,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
       <c r="W56" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X56" s="13" t="s">
         <v>56</v>
@@ -13440,7 +13557,7 @@
         <v>0.08</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC56" s="13" t="s">
         <v>59</v>
@@ -13458,7 +13575,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
@@ -13506,7 +13623,7 @@
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
       <c r="W57" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X57" s="13" t="s">
         <v>56</v>
@@ -13521,7 +13638,7 @@
         <v>0.08</v>
       </c>
       <c r="AB57" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC57" s="13" t="s">
         <v>59</v>
@@ -13539,7 +13656,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
@@ -13587,7 +13704,7 @@
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X58" s="13" t="s">
         <v>56</v>
@@ -13602,7 +13719,7 @@
         <v>0.08</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC58" s="13" t="s">
         <v>59</v>
@@ -13620,7 +13737,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="s">
@@ -13668,7 +13785,7 @@
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X59" s="13" t="s">
         <v>56</v>
@@ -13683,7 +13800,7 @@
         <v>0.08</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC59" s="13" t="s">
         <v>59</v>
@@ -13701,7 +13818,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="163" t="s">
         <v>65</v>
@@ -13783,7 +13900,7 @@
     <row r="61" spans="1:34" ht="24" customHeight="1"/>
     <row r="62" spans="1:34" ht="11.25" customHeight="1">
       <c r="A62" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -13838,14 +13955,14 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="J65" s="252" t="s">
+      <c r="J65" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="K65" s="253"/>
+      <c r="K65" s="272"/>
       <c r="U65" s="1" t="s">
         <v>15</v>
       </c>
@@ -13854,58 +13971,58 @@
       <c r="A66" s="2"/>
       <c r="D66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="J66" s="263"/>
-      <c r="K66" s="264"/>
-      <c r="V66" s="265" t="s">
+      <c r="J66" s="336"/>
+      <c r="K66" s="337"/>
+      <c r="V66" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="W66" s="265"/>
-      <c r="X66" s="265" t="s">
+      <c r="W66" s="270"/>
+      <c r="X66" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="Y66" s="265"/>
-      <c r="Z66" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="265"/>
+      <c r="Y66" s="270"/>
+      <c r="Z66" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="270"/>
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="2"/>
-      <c r="J67" s="246">
+      <c r="J67" s="280">
         <v>20200200001</v>
       </c>
-      <c r="K67" s="247"/>
+      <c r="K67" s="281"/>
       <c r="U67" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="V67" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="V67" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="W67" s="257"/>
-      <c r="X67" s="257"/>
-      <c r="Y67" s="257"/>
-      <c r="Z67" s="257"/>
-      <c r="AA67" s="257"/>
+      <c r="W67" s="239"/>
+      <c r="X67" s="239"/>
+      <c r="Y67" s="239"/>
+      <c r="Z67" s="239"/>
+      <c r="AA67" s="239"/>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="2"/>
       <c r="D68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="J68" s="259">
+      <c r="J68" s="252">
         <v>20200200005</v>
       </c>
-      <c r="K68" s="260"/>
+      <c r="K68" s="253"/>
       <c r="U68" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="V68" s="261"/>
-      <c r="W68" s="262"/>
-      <c r="X68" s="261" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y68" s="262"/>
-      <c r="Z68" s="261"/>
-      <c r="AA68" s="262"/>
+        <v>210</v>
+      </c>
+      <c r="V68" s="262"/>
+      <c r="W68" s="263"/>
+      <c r="X68" s="262" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y68" s="263"/>
+      <c r="Z68" s="262"/>
+      <c r="AA68" s="263"/>
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="2"/>
@@ -13917,16 +14034,16 @@
       <c r="G69" s="2"/>
       <c r="K69" s="3"/>
       <c r="U69" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="V69" s="261"/>
-      <c r="W69" s="262"/>
-      <c r="X69" s="261"/>
-      <c r="Y69" s="262"/>
-      <c r="Z69" s="261" t="s">
+        <v>211</v>
+      </c>
+      <c r="V69" s="262"/>
+      <c r="W69" s="263"/>
+      <c r="X69" s="262"/>
+      <c r="Y69" s="263"/>
+      <c r="Z69" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="AA69" s="262"/>
+      <c r="AA69" s="263"/>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="2"/>
@@ -13946,105 +14063,105 @@
     <row r="71" spans="1:29" ht="13.5" customHeight="1">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="252" t="s">
+      <c r="E71" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="253"/>
-      <c r="O71" s="252" t="s">
+      <c r="F71" s="272"/>
+      <c r="O71" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="P71" s="253"/>
+      <c r="P71" s="272"/>
       <c r="U71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="255"/>
-      <c r="O72" s="254"/>
-      <c r="P72" s="255"/>
-      <c r="V72" s="265" t="s">
+      <c r="E72" s="273"/>
+      <c r="F72" s="274"/>
+      <c r="O72" s="273"/>
+      <c r="P72" s="274"/>
+      <c r="V72" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="W72" s="265"/>
-      <c r="X72" s="265" t="s">
+      <c r="W72" s="270"/>
+      <c r="X72" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="Y72" s="265"/>
-      <c r="Z72" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="265"/>
+      <c r="Y72" s="270"/>
+      <c r="Z72" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="270"/>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="2"/>
-      <c r="E73" s="246">
+      <c r="E73" s="280">
         <v>20200200001</v>
       </c>
-      <c r="F73" s="247"/>
-      <c r="O73" s="246">
+      <c r="F73" s="281"/>
+      <c r="O73" s="280">
         <v>20200200001</v>
       </c>
-      <c r="P73" s="247"/>
+      <c r="P73" s="281"/>
       <c r="U73" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="V73" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="V73" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="W73" s="257"/>
-      <c r="X73" s="257"/>
-      <c r="Y73" s="257"/>
-      <c r="Z73" s="257"/>
-      <c r="AA73" s="257"/>
+      <c r="W73" s="239"/>
+      <c r="X73" s="239"/>
+      <c r="Y73" s="239"/>
+      <c r="Z73" s="239"/>
+      <c r="AA73" s="239"/>
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="2"/>
-      <c r="E74" s="274">
+      <c r="E74" s="266">
         <v>20200200002</v>
       </c>
-      <c r="F74" s="275"/>
-      <c r="O74" s="238">
+      <c r="F74" s="267"/>
+      <c r="O74" s="268">
         <v>20200200005</v>
       </c>
-      <c r="P74" s="239"/>
+      <c r="P74" s="269"/>
       <c r="U74" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="V74" s="261"/>
-      <c r="W74" s="262"/>
-      <c r="X74" s="261" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y74" s="262"/>
-      <c r="Z74" s="261"/>
-      <c r="AA74" s="262"/>
+        <v>210</v>
+      </c>
+      <c r="V74" s="262"/>
+      <c r="W74" s="263"/>
+      <c r="X74" s="262" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y74" s="263"/>
+      <c r="Z74" s="262"/>
+      <c r="AA74" s="263"/>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="259">
+      <c r="E75" s="252">
         <v>20200200005</v>
       </c>
-      <c r="F75" s="260"/>
-      <c r="O75" s="248"/>
-      <c r="P75" s="249"/>
+      <c r="F75" s="253"/>
+      <c r="O75" s="242"/>
+      <c r="P75" s="243"/>
       <c r="U75" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="V75" s="261"/>
-      <c r="W75" s="262"/>
-      <c r="X75" s="261"/>
-      <c r="Y75" s="262"/>
-      <c r="Z75" s="261" t="s">
+        <v>212</v>
+      </c>
+      <c r="V75" s="262"/>
+      <c r="W75" s="263"/>
+      <c r="X75" s="262"/>
+      <c r="Y75" s="263"/>
+      <c r="Z75" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="AA75" s="262"/>
+      <c r="AA75" s="263"/>
     </row>
     <row r="76" spans="1:29" ht="13.5" customHeight="1">
       <c r="A76" s="2"/>
@@ -14054,16 +14171,16 @@
       <c r="G76" s="2"/>
       <c r="P76" s="3"/>
       <c r="U76" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="V76" s="257"/>
-      <c r="W76" s="257"/>
-      <c r="X76" s="261"/>
-      <c r="Y76" s="262"/>
-      <c r="Z76" s="261" t="s">
+        <v>213</v>
+      </c>
+      <c r="V76" s="239"/>
+      <c r="W76" s="239"/>
+      <c r="X76" s="262"/>
+      <c r="Y76" s="263"/>
+      <c r="Z76" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AA76" s="262"/>
+      <c r="AA76" s="263"/>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="2"/>
@@ -14083,186 +14200,186 @@
       <c r="R77" s="6"/>
       <c r="S77" s="7"/>
       <c r="U77" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="V77" s="257"/>
-      <c r="W77" s="257"/>
-      <c r="X77" s="261"/>
-      <c r="Y77" s="262"/>
-      <c r="Z77" s="261" t="s">
+        <v>242</v>
+      </c>
+      <c r="V77" s="239"/>
+      <c r="W77" s="239"/>
+      <c r="X77" s="262"/>
+      <c r="Y77" s="263"/>
+      <c r="Z77" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AA77" s="262"/>
+      <c r="AA77" s="263"/>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="2"/>
-      <c r="B78" s="252" t="s">
+      <c r="B78" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="253"/>
-      <c r="D78" s="252" t="s">
+      <c r="C78" s="272"/>
+      <c r="D78" s="271" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="253"/>
-      <c r="F78" s="252" t="s">
+      <c r="E78" s="272"/>
+      <c r="F78" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="253"/>
-      <c r="H78" s="252" t="s">
+      <c r="G78" s="272"/>
+      <c r="H78" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="253"/>
-      <c r="L78" s="252" t="s">
+      <c r="I78" s="272"/>
+      <c r="L78" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="M78" s="253"/>
-      <c r="N78" s="252" t="s">
+      <c r="M78" s="272"/>
+      <c r="N78" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="253"/>
-      <c r="P78" s="252" t="s">
+      <c r="O78" s="272"/>
+      <c r="P78" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="Q78" s="253"/>
-      <c r="R78" s="252" t="s">
+      <c r="Q78" s="272"/>
+      <c r="R78" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="S78" s="253"/>
+      <c r="S78" s="272"/>
       <c r="V78" s="119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y78" s="119"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="2"/>
-      <c r="B79" s="254"/>
-      <c r="C79" s="255"/>
-      <c r="D79" s="254"/>
-      <c r="E79" s="255"/>
-      <c r="F79" s="254"/>
-      <c r="G79" s="255"/>
-      <c r="H79" s="254"/>
-      <c r="I79" s="255"/>
-      <c r="L79" s="254"/>
-      <c r="M79" s="255"/>
-      <c r="N79" s="254"/>
-      <c r="O79" s="255"/>
-      <c r="P79" s="254"/>
-      <c r="Q79" s="255"/>
-      <c r="R79" s="254"/>
-      <c r="S79" s="255"/>
+      <c r="B79" s="273"/>
+      <c r="C79" s="274"/>
+      <c r="D79" s="273"/>
+      <c r="E79" s="274"/>
+      <c r="F79" s="273"/>
+      <c r="G79" s="274"/>
+      <c r="H79" s="273"/>
+      <c r="I79" s="274"/>
+      <c r="L79" s="273"/>
+      <c r="M79" s="274"/>
+      <c r="N79" s="273"/>
+      <c r="O79" s="274"/>
+      <c r="P79" s="273"/>
+      <c r="Q79" s="274"/>
+      <c r="R79" s="273"/>
+      <c r="S79" s="274"/>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="2"/>
-      <c r="B80" s="246">
+      <c r="B80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="C80" s="247"/>
-      <c r="D80" s="246">
+      <c r="C80" s="281"/>
+      <c r="D80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="E80" s="247"/>
-      <c r="F80" s="246">
+      <c r="E80" s="281"/>
+      <c r="F80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="G80" s="247"/>
-      <c r="H80" s="246">
+      <c r="G80" s="281"/>
+      <c r="H80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="I80" s="247"/>
-      <c r="L80" s="246">
+      <c r="I80" s="281"/>
+      <c r="L80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="M80" s="247"/>
-      <c r="N80" s="246">
+      <c r="M80" s="281"/>
+      <c r="N80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="O80" s="247"/>
-      <c r="P80" s="246">
+      <c r="O80" s="281"/>
+      <c r="P80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="Q80" s="247"/>
-      <c r="R80" s="246">
+      <c r="Q80" s="281"/>
+      <c r="R80" s="280">
         <v>20200200001</v>
       </c>
-      <c r="S80" s="247"/>
+      <c r="S80" s="281"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="2"/>
-      <c r="B81" s="250">
+      <c r="B81" s="293">
         <v>20200200002</v>
       </c>
-      <c r="C81" s="251"/>
-      <c r="D81" s="250">
+      <c r="C81" s="294"/>
+      <c r="D81" s="293">
         <v>20200200002</v>
       </c>
-      <c r="E81" s="251"/>
-      <c r="F81" s="250">
+      <c r="E81" s="294"/>
+      <c r="F81" s="293">
         <v>20200200002</v>
       </c>
-      <c r="G81" s="251"/>
-      <c r="H81" s="250">
+      <c r="G81" s="294"/>
+      <c r="H81" s="293">
         <v>20200200002</v>
       </c>
-      <c r="I81" s="251"/>
-      <c r="L81" s="238">
+      <c r="I81" s="294"/>
+      <c r="L81" s="268">
         <v>20200200005</v>
       </c>
-      <c r="M81" s="239"/>
-      <c r="N81" s="238">
+      <c r="M81" s="269"/>
+      <c r="N81" s="268">
         <v>20200200005</v>
       </c>
-      <c r="O81" s="239"/>
-      <c r="P81" s="238">
+      <c r="O81" s="269"/>
+      <c r="P81" s="268">
         <v>20200200005</v>
       </c>
-      <c r="Q81" s="239"/>
-      <c r="R81" s="238">
+      <c r="Q81" s="269"/>
+      <c r="R81" s="268">
         <v>20200200005</v>
       </c>
-      <c r="S81" s="239"/>
+      <c r="S81" s="269"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="2"/>
-      <c r="B82" s="238">
+      <c r="B82" s="268">
         <v>20200200005</v>
       </c>
-      <c r="C82" s="239"/>
-      <c r="D82" s="240">
+      <c r="C82" s="269"/>
+      <c r="D82" s="338">
         <v>20200200004</v>
       </c>
-      <c r="E82" s="241"/>
-      <c r="F82" s="242">
+      <c r="E82" s="339"/>
+      <c r="F82" s="340">
         <v>20200200003</v>
       </c>
-      <c r="G82" s="243"/>
-      <c r="H82" s="238">
+      <c r="G82" s="341"/>
+      <c r="H82" s="268">
         <v>20200200005</v>
       </c>
-      <c r="I82" s="239"/>
-      <c r="L82" s="248"/>
-      <c r="M82" s="249"/>
-      <c r="N82" s="248"/>
-      <c r="O82" s="249"/>
-      <c r="P82" s="248"/>
-      <c r="Q82" s="249"/>
-      <c r="R82" s="329"/>
-      <c r="S82" s="330"/>
+      <c r="I82" s="269"/>
+      <c r="L82" s="242"/>
+      <c r="M82" s="243"/>
+      <c r="N82" s="242"/>
+      <c r="O82" s="243"/>
+      <c r="P82" s="242"/>
+      <c r="Q82" s="243"/>
+      <c r="R82" s="264"/>
+      <c r="S82" s="265"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="2"/>
-      <c r="B83" s="248"/>
-      <c r="C83" s="249"/>
-      <c r="D83" s="259">
+      <c r="B83" s="242"/>
+      <c r="C83" s="243"/>
+      <c r="D83" s="252">
         <v>20200200005</v>
       </c>
-      <c r="E83" s="260"/>
-      <c r="F83" s="259">
+      <c r="E83" s="253"/>
+      <c r="F83" s="252">
         <v>20200200005</v>
       </c>
-      <c r="G83" s="260"/>
-      <c r="H83" s="248"/>
-      <c r="I83" s="249"/>
+      <c r="G83" s="253"/>
+      <c r="H83" s="242"/>
+      <c r="I83" s="243"/>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="2"/>
@@ -14276,7 +14393,7 @@
     <row r="85" spans="1:20">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C85" s="2"/>
       <c r="F85" s="2"/>
@@ -14287,19 +14404,19 @@
     <row r="86" spans="1:20">
       <c r="A86" s="2"/>
       <c r="B86" s="170" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="170" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="170" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="170" t="s">
+      <c r="F86" s="170" t="s">
         <v>251</v>
-      </c>
-      <c r="E86" s="170" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="170" t="s">
-        <v>253</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -14432,7 +14549,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="129"/>
       <c r="C94" s="130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94" s="130"/>
       <c r="E94" s="130"/>
@@ -14456,7 +14573,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="129"/>
       <c r="C95" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D95" s="130"/>
       <c r="E95" s="130"/>
@@ -14497,7 +14614,7 @@
       <c r="S96" s="124"/>
       <c r="T96" s="125"/>
     </row>
-    <row r="99" spans="1:34" ht="57">
+    <row r="99" spans="1:34" ht="75.75">
       <c r="C99" s="25" t="s">
         <v>20</v>
       </c>
@@ -14600,7 +14717,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
@@ -14681,7 +14798,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
@@ -14762,7 +14879,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
@@ -14843,7 +14960,7 @@
         <v>8</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="s">
@@ -14924,7 +15041,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="s">
@@ -14972,7 +15089,7 @@
       <c r="U104" s="13"/>
       <c r="V104" s="13"/>
       <c r="W104" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X104" s="13" t="s">
         <v>56</v>
@@ -14987,7 +15104,7 @@
         <v>0.08</v>
       </c>
       <c r="AB104" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC104" s="13" t="s">
         <v>59</v>
@@ -15005,7 +15122,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
@@ -15053,7 +15170,7 @@
       <c r="U105" s="13"/>
       <c r="V105" s="13"/>
       <c r="W105" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X105" s="13" t="s">
         <v>56</v>
@@ -15068,7 +15185,7 @@
         <v>0.08</v>
       </c>
       <c r="AB105" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC105" s="13" t="s">
         <v>59</v>
@@ -15086,7 +15203,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
@@ -15134,7 +15251,7 @@
       <c r="U106" s="13"/>
       <c r="V106" s="13"/>
       <c r="W106" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X106" s="13" t="s">
         <v>56</v>
@@ -15149,7 +15266,7 @@
         <v>0.08</v>
       </c>
       <c r="AB106" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC106" s="13" t="s">
         <v>59</v>
@@ -15167,7 +15284,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
@@ -15215,7 +15332,7 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X107" s="13" t="s">
         <v>56</v>
@@ -15230,7 +15347,7 @@
         <v>0.08</v>
       </c>
       <c r="AB107" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC107" s="13" t="s">
         <v>59</v>
@@ -15248,7 +15365,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
@@ -15296,7 +15413,7 @@
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
       <c r="W108" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X108" s="13" t="s">
         <v>56</v>
@@ -15311,7 +15428,7 @@
         <v>0.08</v>
       </c>
       <c r="AB108" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC108" s="13" t="s">
         <v>59</v>
@@ -15330,7 +15447,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
@@ -15411,7 +15528,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="s">
@@ -15492,7 +15609,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
@@ -15573,7 +15690,7 @@
         <v>8</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
@@ -15654,7 +15771,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
@@ -15702,7 +15819,7 @@
       <c r="U114" s="13"/>
       <c r="V114" s="13"/>
       <c r="W114" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X114" s="13" t="s">
         <v>56</v>
@@ -15717,7 +15834,7 @@
         <v>0.08</v>
       </c>
       <c r="AB114" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC114" s="13" t="s">
         <v>59</v>
@@ -15735,7 +15852,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
@@ -15783,7 +15900,7 @@
       <c r="U115" s="13"/>
       <c r="V115" s="13"/>
       <c r="W115" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X115" s="13" t="s">
         <v>56</v>
@@ -15798,7 +15915,7 @@
         <v>0.08</v>
       </c>
       <c r="AB115" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC115" s="13" t="s">
         <v>59</v>
@@ -15816,7 +15933,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13" t="s">
@@ -15864,7 +15981,7 @@
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
       <c r="W116" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X116" s="13" t="s">
         <v>56</v>
@@ -15879,7 +15996,7 @@
         <v>0.08</v>
       </c>
       <c r="AB116" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC116" s="13" t="s">
         <v>59</v>
@@ -15897,7 +16014,7 @@
         <v>8</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
@@ -15945,7 +16062,7 @@
       <c r="U117" s="13"/>
       <c r="V117" s="13"/>
       <c r="W117" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X117" s="13" t="s">
         <v>56</v>
@@ -15960,7 +16077,7 @@
         <v>0.08</v>
       </c>
       <c r="AB117" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC117" s="13" t="s">
         <v>59</v>
@@ -15978,7 +16095,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
@@ -16026,7 +16143,7 @@
       <c r="U118" s="13"/>
       <c r="V118" s="13"/>
       <c r="W118" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X118" s="13" t="s">
         <v>56</v>
@@ -16041,7 +16158,7 @@
         <v>0.08</v>
       </c>
       <c r="AB118" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC118" s="13" t="s">
         <v>59</v>
@@ -16059,10 +16176,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="s">
@@ -16143,10 +16260,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
@@ -16194,7 +16311,7 @@
       <c r="U120" s="13"/>
       <c r="V120" s="13"/>
       <c r="W120" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X120" s="13" t="s">
         <v>56</v>
@@ -16209,7 +16326,7 @@
         <v>0.08</v>
       </c>
       <c r="AB120" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC120" s="13" t="s">
         <v>59</v>
@@ -16227,10 +16344,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
@@ -16278,7 +16395,7 @@
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
       <c r="W121" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X121" s="13" t="s">
         <v>56</v>
@@ -16293,7 +16410,7 @@
         <v>0.08</v>
       </c>
       <c r="AB121" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC121" s="13" t="s">
         <v>59</v>
@@ -16311,10 +16428,10 @@
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13" t="s">
@@ -16362,7 +16479,7 @@
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
       <c r="W122" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X122" s="13" t="s">
         <v>56</v>
@@ -16377,7 +16494,7 @@
         <v>0.08</v>
       </c>
       <c r="AB122" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC122" s="13" t="s">
         <v>59</v>
@@ -16395,10 +16512,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13" t="s">
@@ -16446,7 +16563,7 @@
       <c r="U123" s="13"/>
       <c r="V123" s="13"/>
       <c r="W123" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X123" s="13" t="s">
         <v>56</v>
@@ -16461,7 +16578,7 @@
         <v>0.08</v>
       </c>
       <c r="AB123" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC123" s="13" t="s">
         <v>59</v>
@@ -16479,7 +16596,7 @@
     <row r="130" spans="1:34" hidden="1"/>
     <row r="131" spans="1:34" ht="11.25" hidden="1" customHeight="1">
       <c r="A131" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B131" s="30"/>
       <c r="C131" s="30"/>
@@ -16537,64 +16654,64 @@
     </row>
     <row r="134" spans="1:34" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="J134" s="266" t="s">
+      <c r="J134" s="258" t="s">
         <v>2</v>
       </c>
-      <c r="K134" s="267"/>
-      <c r="Y134" s="331" t="s">
+      <c r="K134" s="259"/>
+      <c r="Y134" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="Z134" s="332"/>
-      <c r="AA134" s="331" t="s">
+      <c r="Z134" s="255"/>
+      <c r="AA134" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="AB134" s="332"/>
-      <c r="AC134" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD134" s="332"/>
+      <c r="AB134" s="255"/>
+      <c r="AC134" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD134" s="255"/>
     </row>
     <row r="135" spans="1:34" ht="13.5" hidden="1" customHeight="1">
       <c r="A135" s="2"/>
       <c r="D135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="J135" s="270"/>
-      <c r="K135" s="271"/>
+      <c r="J135" s="260"/>
+      <c r="K135" s="261"/>
       <c r="X135" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y135" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y135" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="Z135" s="257"/>
-      <c r="AA135" s="257"/>
-      <c r="AB135" s="257"/>
-      <c r="AC135" s="257"/>
-      <c r="AD135" s="257"/>
+      <c r="Z135" s="239"/>
+      <c r="AA135" s="239"/>
+      <c r="AB135" s="239"/>
+      <c r="AC135" s="239"/>
+      <c r="AD135" s="239"/>
     </row>
     <row r="136" spans="1:34" hidden="1">
       <c r="A136" s="2"/>
       <c r="D136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="J136" s="333">
+      <c r="J136" s="256">
         <v>20200200001</v>
       </c>
-      <c r="K136" s="334"/>
+      <c r="K136" s="257"/>
       <c r="X136" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y136" s="257"/>
-      <c r="Z136" s="257"/>
-      <c r="AA136" s="257" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB136" s="257"/>
-      <c r="AC136" s="257"/>
-      <c r="AD136" s="257"/>
+        <v>210</v>
+      </c>
+      <c r="Y136" s="239"/>
+      <c r="Z136" s="239"/>
+      <c r="AA136" s="239" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB136" s="239"/>
+      <c r="AC136" s="239"/>
+      <c r="AD136" s="239"/>
     </row>
     <row r="137" spans="1:34" hidden="1">
       <c r="A137" s="2"/>
@@ -16606,16 +16723,16 @@
       <c r="G137" s="2"/>
       <c r="K137" s="3"/>
       <c r="X137" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y137" s="257"/>
-      <c r="Z137" s="257"/>
-      <c r="AA137" s="257"/>
-      <c r="AB137" s="257"/>
-      <c r="AC137" s="257" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y137" s="239"/>
+      <c r="Z137" s="239"/>
+      <c r="AA137" s="239"/>
+      <c r="AB137" s="239"/>
+      <c r="AC137" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="AD137" s="257"/>
+      <c r="AD137" s="239"/>
       <c r="AG137" s="1" t="s">
         <v>17</v>
       </c>
@@ -16638,91 +16755,91 @@
     <row r="139" spans="1:34" hidden="1">
       <c r="A139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="266" t="s">
+      <c r="E139" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F139" s="267"/>
-      <c r="O139" s="266" t="s">
+      <c r="F139" s="259"/>
+      <c r="O139" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="P139" s="267"/>
+      <c r="P139" s="259"/>
     </row>
     <row r="140" spans="1:34" ht="13.5" hidden="1" customHeight="1">
       <c r="A140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="270"/>
-      <c r="F140" s="271"/>
-      <c r="O140" s="270"/>
-      <c r="P140" s="271"/>
+      <c r="E140" s="260"/>
+      <c r="F140" s="261"/>
+      <c r="O140" s="260"/>
+      <c r="P140" s="261"/>
       <c r="X140" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:34" hidden="1">
       <c r="A141" s="2"/>
-      <c r="E141" s="272">
+      <c r="E141" s="291">
         <v>20200200001</v>
       </c>
-      <c r="F141" s="273"/>
-      <c r="O141" s="272">
+      <c r="F141" s="292"/>
+      <c r="O141" s="291">
         <v>20200200001</v>
       </c>
-      <c r="P141" s="273"/>
-      <c r="Y141" s="265" t="s">
+      <c r="P141" s="292"/>
+      <c r="Y141" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="Z141" s="265"/>
-      <c r="AA141" s="265" t="s">
+      <c r="Z141" s="270"/>
+      <c r="AA141" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AB141" s="265"/>
-      <c r="AC141" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD141" s="265"/>
+      <c r="AB141" s="270"/>
+      <c r="AC141" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="270"/>
     </row>
     <row r="142" spans="1:34" hidden="1">
       <c r="A142" s="2"/>
-      <c r="E142" s="274">
+      <c r="E142" s="266">
         <v>20200200002</v>
       </c>
-      <c r="F142" s="275"/>
-      <c r="O142" s="238">
+      <c r="F142" s="267"/>
+      <c r="O142" s="268">
         <v>20200200005</v>
       </c>
-      <c r="P142" s="239"/>
+      <c r="P142" s="269"/>
       <c r="X142" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Y142" s="257" t="s">
+      <c r="Y142" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="Z142" s="257"/>
-      <c r="AA142" s="257"/>
-      <c r="AB142" s="257"/>
-      <c r="AC142" s="257"/>
-      <c r="AD142" s="257"/>
+      <c r="Z142" s="239"/>
+      <c r="AA142" s="239"/>
+      <c r="AB142" s="239"/>
+      <c r="AC142" s="239"/>
+      <c r="AD142" s="239"/>
     </row>
     <row r="143" spans="1:34" hidden="1">
       <c r="A143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="327">
+      <c r="E143" s="275">
         <v>20200200004</v>
       </c>
-      <c r="F143" s="328"/>
-      <c r="O143" s="248"/>
-      <c r="P143" s="249"/>
+      <c r="F143" s="276"/>
+      <c r="O143" s="242"/>
+      <c r="P143" s="243"/>
       <c r="X143" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y143" s="257"/>
-      <c r="Z143" s="257"/>
-      <c r="AA143" s="257" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB143" s="257"/>
-      <c r="AC143" s="257"/>
-      <c r="AD143" s="257"/>
+        <v>210</v>
+      </c>
+      <c r="Y143" s="239"/>
+      <c r="Z143" s="239"/>
+      <c r="AA143" s="239" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB143" s="239"/>
+      <c r="AC143" s="239"/>
+      <c r="AD143" s="239"/>
     </row>
     <row r="144" spans="1:34" hidden="1">
       <c r="A144" s="2"/>
@@ -16732,16 +16849,16 @@
       <c r="G144" s="2"/>
       <c r="P144" s="3"/>
       <c r="X144" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y144" s="257"/>
-      <c r="Z144" s="257"/>
-      <c r="AA144" s="257"/>
-      <c r="AB144" s="257"/>
-      <c r="AC144" s="257" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y144" s="239"/>
+      <c r="Z144" s="239"/>
+      <c r="AA144" s="239"/>
+      <c r="AB144" s="239"/>
+      <c r="AC144" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="AD144" s="257"/>
+      <c r="AD144" s="239"/>
     </row>
     <row r="145" spans="1:30" ht="13.5" hidden="1" customHeight="1">
       <c r="A145" s="2"/>
@@ -16761,205 +16878,205 @@
       <c r="R145" s="6"/>
       <c r="S145" s="7"/>
       <c r="X145" s="159" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y145" s="257"/>
-      <c r="Z145" s="257"/>
-      <c r="AA145" s="257" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB145" s="257"/>
-      <c r="AC145" s="257"/>
-      <c r="AD145" s="257"/>
+        <v>213</v>
+      </c>
+      <c r="Y145" s="239"/>
+      <c r="Z145" s="239"/>
+      <c r="AA145" s="239" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB145" s="239"/>
+      <c r="AC145" s="239"/>
+      <c r="AD145" s="239"/>
     </row>
     <row r="146" spans="1:30" hidden="1">
       <c r="A146" s="2"/>
-      <c r="B146" s="278" t="s">
+      <c r="B146" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="C146" s="278"/>
-      <c r="D146" s="278" t="s">
+      <c r="C146" s="250"/>
+      <c r="D146" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="278"/>
-      <c r="F146" s="278" t="s">
+      <c r="E146" s="250"/>
+      <c r="F146" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="G146" s="278"/>
-      <c r="H146" s="278" t="s">
+      <c r="G146" s="250"/>
+      <c r="H146" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I146" s="278"/>
-      <c r="L146" s="278" t="s">
+      <c r="I146" s="250"/>
+      <c r="L146" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="M146" s="278"/>
-      <c r="N146" s="278" t="s">
+      <c r="M146" s="250"/>
+      <c r="N146" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O146" s="278"/>
-      <c r="P146" s="278" t="s">
+      <c r="O146" s="250"/>
+      <c r="P146" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="Q146" s="278"/>
-      <c r="R146" s="278" t="s">
+      <c r="Q146" s="250"/>
+      <c r="R146" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="S146" s="278"/>
+      <c r="S146" s="250"/>
       <c r="X146" s="157" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y146" s="257"/>
-      <c r="Z146" s="257"/>
-      <c r="AA146" s="257" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB146" s="257"/>
-      <c r="AC146" s="257"/>
-      <c r="AD146" s="257"/>
+        <v>214</v>
+      </c>
+      <c r="Y146" s="239"/>
+      <c r="Z146" s="239"/>
+      <c r="AA146" s="239" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB146" s="239"/>
+      <c r="AC146" s="239"/>
+      <c r="AD146" s="239"/>
     </row>
     <row r="147" spans="1:30" hidden="1">
       <c r="A147" s="2"/>
-      <c r="B147" s="279"/>
-      <c r="C147" s="279"/>
-      <c r="D147" s="279"/>
-      <c r="E147" s="279"/>
-      <c r="F147" s="279"/>
-      <c r="G147" s="279"/>
-      <c r="H147" s="279"/>
-      <c r="I147" s="279"/>
-      <c r="L147" s="279"/>
-      <c r="M147" s="279"/>
-      <c r="N147" s="279"/>
-      <c r="O147" s="279"/>
-      <c r="P147" s="279"/>
-      <c r="Q147" s="279"/>
-      <c r="R147" s="279"/>
-      <c r="S147" s="279"/>
+      <c r="B147" s="251"/>
+      <c r="C147" s="251"/>
+      <c r="D147" s="251"/>
+      <c r="E147" s="251"/>
+      <c r="F147" s="251"/>
+      <c r="G147" s="251"/>
+      <c r="H147" s="251"/>
+      <c r="I147" s="251"/>
+      <c r="L147" s="251"/>
+      <c r="M147" s="251"/>
+      <c r="N147" s="251"/>
+      <c r="O147" s="251"/>
+      <c r="P147" s="251"/>
+      <c r="Q147" s="251"/>
+      <c r="R147" s="251"/>
+      <c r="S147" s="251"/>
       <c r="Y147" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:30" hidden="1">
       <c r="A148" s="2"/>
-      <c r="B148" s="272">
+      <c r="B148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="C148" s="273"/>
-      <c r="D148" s="272">
+      <c r="C148" s="292"/>
+      <c r="D148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="E148" s="273"/>
-      <c r="F148" s="272">
+      <c r="E148" s="292"/>
+      <c r="F148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="G148" s="273"/>
-      <c r="H148" s="272">
+      <c r="G148" s="292"/>
+      <c r="H148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="I148" s="273"/>
-      <c r="L148" s="272">
+      <c r="I148" s="292"/>
+      <c r="L148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="M148" s="273"/>
-      <c r="N148" s="272">
+      <c r="M148" s="292"/>
+      <c r="N148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="O148" s="273"/>
-      <c r="P148" s="272">
+      <c r="O148" s="292"/>
+      <c r="P148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="Q148" s="273"/>
-      <c r="R148" s="272">
+      <c r="Q148" s="292"/>
+      <c r="R148" s="291">
         <v>20200200001</v>
       </c>
-      <c r="S148" s="273"/>
+      <c r="S148" s="292"/>
       <c r="Y148" s="119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:30" hidden="1">
       <c r="A149" s="2"/>
-      <c r="B149" s="250">
+      <c r="B149" s="293">
         <v>20200200002</v>
       </c>
-      <c r="C149" s="251"/>
-      <c r="D149" s="250">
+      <c r="C149" s="294"/>
+      <c r="D149" s="293">
         <v>20200200002</v>
       </c>
-      <c r="E149" s="251"/>
-      <c r="F149" s="250">
+      <c r="E149" s="294"/>
+      <c r="F149" s="293">
         <v>20200200002</v>
       </c>
-      <c r="G149" s="251"/>
-      <c r="H149" s="250">
+      <c r="G149" s="294"/>
+      <c r="H149" s="293">
         <v>20200200002</v>
       </c>
-      <c r="I149" s="251"/>
-      <c r="L149" s="335">
+      <c r="I149" s="294"/>
+      <c r="L149" s="240">
         <v>20200200005</v>
       </c>
-      <c r="M149" s="336"/>
-      <c r="N149" s="335">
+      <c r="M149" s="241"/>
+      <c r="N149" s="240">
         <v>20200200005</v>
       </c>
-      <c r="O149" s="336"/>
-      <c r="P149" s="335">
+      <c r="O149" s="241"/>
+      <c r="P149" s="240">
         <v>20200200005</v>
       </c>
-      <c r="Q149" s="336"/>
-      <c r="R149" s="335">
+      <c r="Q149" s="241"/>
+      <c r="R149" s="240">
         <v>20200200005</v>
       </c>
-      <c r="S149" s="336"/>
+      <c r="S149" s="241"/>
     </row>
     <row r="150" spans="1:30" hidden="1">
       <c r="A150" s="2"/>
-      <c r="B150" s="339">
+      <c r="B150" s="246">
         <v>20200200004</v>
       </c>
-      <c r="C150" s="340"/>
-      <c r="D150" s="339">
+      <c r="C150" s="247"/>
+      <c r="D150" s="246">
         <v>20200200004</v>
       </c>
-      <c r="E150" s="340"/>
-      <c r="F150" s="339">
+      <c r="E150" s="247"/>
+      <c r="F150" s="246">
         <v>20200200004</v>
       </c>
-      <c r="G150" s="340"/>
-      <c r="H150" s="339">
+      <c r="G150" s="247"/>
+      <c r="H150" s="246">
         <v>20200200004</v>
       </c>
-      <c r="I150" s="340"/>
-      <c r="L150" s="280"/>
-      <c r="M150" s="281"/>
-      <c r="N150" s="280"/>
-      <c r="O150" s="281"/>
-      <c r="P150" s="280"/>
-      <c r="Q150" s="281"/>
-      <c r="R150" s="280"/>
-      <c r="S150" s="281"/>
+      <c r="I150" s="247"/>
+      <c r="L150" s="248"/>
+      <c r="M150" s="249"/>
+      <c r="N150" s="248"/>
+      <c r="O150" s="249"/>
+      <c r="P150" s="248"/>
+      <c r="Q150" s="249"/>
+      <c r="R150" s="248"/>
+      <c r="S150" s="249"/>
     </row>
     <row r="151" spans="1:30" hidden="1">
       <c r="A151" s="2"/>
-      <c r="B151" s="248"/>
-      <c r="C151" s="249"/>
-      <c r="D151" s="248"/>
-      <c r="E151" s="249"/>
-      <c r="F151" s="337">
+      <c r="B151" s="242"/>
+      <c r="C151" s="243"/>
+      <c r="D151" s="242"/>
+      <c r="E151" s="243"/>
+      <c r="F151" s="244">
         <v>10000000003</v>
       </c>
-      <c r="G151" s="338"/>
-      <c r="H151" s="248"/>
-      <c r="I151" s="249"/>
-      <c r="L151" s="248"/>
-      <c r="M151" s="249"/>
-      <c r="N151" s="248"/>
-      <c r="O151" s="249"/>
-      <c r="P151" s="248"/>
-      <c r="Q151" s="249"/>
-      <c r="R151" s="248"/>
-      <c r="S151" s="249"/>
+      <c r="G151" s="245"/>
+      <c r="H151" s="242"/>
+      <c r="I151" s="243"/>
+      <c r="L151" s="242"/>
+      <c r="M151" s="243"/>
+      <c r="N151" s="242"/>
+      <c r="O151" s="243"/>
+      <c r="P151" s="242"/>
+      <c r="Q151" s="243"/>
+      <c r="R151" s="242"/>
+      <c r="S151" s="243"/>
     </row>
     <row r="152" spans="1:30" hidden="1">
       <c r="A152" s="2"/>
@@ -17027,7 +17144,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17038,18 +17155,18 @@
     </row>
     <row r="160" spans="1:30" hidden="1">
       <c r="C160" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:34" hidden="1">
       <c r="C161" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:34" hidden="1"/>
     <row r="163" spans="1:34" hidden="1"/>
-    <row r="164" spans="1:34" ht="80.25" hidden="1">
+    <row r="164" spans="1:34" ht="75.75" hidden="1">
       <c r="C164" s="25" t="s">
         <v>20</v>
       </c>
@@ -17152,7 +17269,7 @@
         <v>5</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
@@ -17231,7 +17348,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
@@ -17310,7 +17427,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
@@ -17389,7 +17506,7 @@
         <v>8</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
@@ -17468,7 +17585,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
@@ -17547,7 +17664,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
@@ -17626,7 +17743,7 @@
         <v>11</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
@@ -17705,7 +17822,7 @@
         <v>12</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
@@ -17785,7 +17902,7 @@
         <v>5</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
@@ -17864,7 +17981,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
@@ -17943,7 +18060,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
@@ -18022,7 +18139,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
@@ -18104,7 +18221,7 @@
         <v>66</v>
       </c>
       <c r="C178" s="112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D178" s="112"/>
       <c r="E178" s="112"/>
@@ -18186,7 +18303,7 @@
         <v>66</v>
       </c>
       <c r="C179" s="112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D179" s="112"/>
       <c r="E179" s="112"/>
@@ -18268,7 +18385,7 @@
         <v>66</v>
       </c>
       <c r="C180" s="112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D180" s="112"/>
       <c r="E180" s="112"/>
@@ -18347,7 +18464,7 @@
         <v>12</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
@@ -18426,10 +18543,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
@@ -18508,10 +18625,10 @@
         <v>10</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
@@ -18590,10 +18707,10 @@
         <v>11</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
@@ -18670,7 +18787,7 @@
     <row r="185" spans="1:34" hidden="1"/>
     <row r="186" spans="1:34" ht="11.25" hidden="1" customHeight="1">
       <c r="A186" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -18728,69 +18845,69 @@
     </row>
     <row r="189" spans="1:34" hidden="1">
       <c r="A189" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="Y189" s="265" t="s">
+      <c r="Y189" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="Z189" s="265"/>
-      <c r="AA189" s="265" t="s">
+      <c r="Z189" s="270"/>
+      <c r="AA189" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AB189" s="265"/>
-      <c r="AC189" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD189" s="265"/>
+      <c r="AB189" s="270"/>
+      <c r="AC189" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD189" s="270"/>
     </row>
     <row r="190" spans="1:34" ht="13.5" hidden="1" customHeight="1">
       <c r="A190" s="2"/>
       <c r="D190" s="2"/>
       <c r="G190" s="2"/>
-      <c r="J190" s="266" t="s">
+      <c r="J190" s="258" t="s">
         <v>2</v>
       </c>
-      <c r="K190" s="267"/>
+      <c r="K190" s="259"/>
       <c r="X190" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y190" s="257"/>
-      <c r="Z190" s="257"/>
-      <c r="AA190" s="257" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y190" s="239"/>
+      <c r="Z190" s="239"/>
+      <c r="AA190" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AB190" s="257"/>
-      <c r="AC190" s="257"/>
-      <c r="AD190" s="257"/>
+      <c r="AB190" s="239"/>
+      <c r="AC190" s="239"/>
+      <c r="AD190" s="239"/>
     </row>
     <row r="191" spans="1:34" hidden="1">
       <c r="A191" s="2"/>
       <c r="D191" s="2"/>
       <c r="G191" s="2"/>
-      <c r="J191" s="254"/>
-      <c r="K191" s="255"/>
+      <c r="J191" s="273"/>
+      <c r="K191" s="274"/>
       <c r="X191" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y191" s="257"/>
-      <c r="Z191" s="257"/>
-      <c r="AA191" s="257"/>
-      <c r="AB191" s="257"/>
-      <c r="AC191" s="257" t="s">
+      <c r="Y191" s="239"/>
+      <c r="Z191" s="239"/>
+      <c r="AA191" s="239"/>
+      <c r="AB191" s="239"/>
+      <c r="AC191" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="AD191" s="257"/>
+      <c r="AD191" s="239"/>
     </row>
     <row r="192" spans="1:34" hidden="1">
       <c r="A192" s="2"/>
       <c r="D192" s="2"/>
       <c r="G192" s="2"/>
-      <c r="J192" s="316" t="s">
-        <v>189</v>
-      </c>
-      <c r="K192" s="317"/>
+      <c r="J192" s="287" t="s">
+        <v>188</v>
+      </c>
+      <c r="K192" s="288"/>
     </row>
     <row r="193" spans="1:33" hidden="1">
       <c r="A193" s="2"/>
@@ -18823,14 +18940,14 @@
     <row r="195" spans="1:33" hidden="1">
       <c r="A195" s="2"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="266" t="s">
+      <c r="E195" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F195" s="267"/>
-      <c r="O195" s="266" t="s">
+      <c r="F195" s="259"/>
+      <c r="O195" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="P195" s="267"/>
+      <c r="P195" s="259"/>
       <c r="X195" s="1" t="s">
         <v>16</v>
       </c>
@@ -18838,44 +18955,44 @@
     <row r="196" spans="1:33" ht="13.5" hidden="1" customHeight="1">
       <c r="A196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="254"/>
-      <c r="F196" s="255"/>
-      <c r="O196" s="270"/>
-      <c r="P196" s="271"/>
-      <c r="Y196" s="265" t="s">
+      <c r="E196" s="273"/>
+      <c r="F196" s="274"/>
+      <c r="O196" s="260"/>
+      <c r="P196" s="261"/>
+      <c r="Y196" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="Z196" s="265"/>
-      <c r="AA196" s="265" t="s">
+      <c r="Z196" s="270"/>
+      <c r="AA196" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AB196" s="265"/>
-      <c r="AC196" s="265" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD196" s="265"/>
+      <c r="AB196" s="270"/>
+      <c r="AC196" s="270" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD196" s="270"/>
     </row>
     <row r="197" spans="1:33" hidden="1">
       <c r="A197" s="2"/>
-      <c r="E197" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="F197" s="319"/>
-      <c r="O197" s="320">
+      <c r="E197" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="F197" s="284"/>
+      <c r="O197" s="289">
         <v>10000000002</v>
       </c>
-      <c r="P197" s="321"/>
+      <c r="P197" s="290"/>
       <c r="X197" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y197" s="257"/>
-      <c r="Z197" s="257"/>
-      <c r="AA197" s="257" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y197" s="239"/>
+      <c r="Z197" s="239"/>
+      <c r="AA197" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AB197" s="257"/>
-      <c r="AC197" s="257"/>
-      <c r="AD197" s="257"/>
+      <c r="AB197" s="239"/>
+      <c r="AC197" s="239"/>
+      <c r="AD197" s="239"/>
     </row>
     <row r="198" spans="1:33" hidden="1">
       <c r="A198" s="2"/>
@@ -18887,14 +19004,14 @@
       <c r="X198" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y198" s="257"/>
-      <c r="Z198" s="257"/>
-      <c r="AA198" s="257"/>
-      <c r="AB198" s="257"/>
-      <c r="AC198" s="257" t="s">
+      <c r="Y198" s="239"/>
+      <c r="Z198" s="239"/>
+      <c r="AA198" s="239"/>
+      <c r="AB198" s="239"/>
+      <c r="AC198" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="AD198" s="257"/>
+      <c r="AD198" s="239"/>
     </row>
     <row r="199" spans="1:33" hidden="1">
       <c r="A199" s="2"/>
@@ -18914,108 +19031,108 @@
       <c r="R199" s="6"/>
       <c r="S199" s="7"/>
       <c r="X199" s="135" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y199" s="257" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y199" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="Z199" s="257"/>
-      <c r="AA199" s="257"/>
-      <c r="AB199" s="257"/>
-      <c r="AC199" s="257"/>
-      <c r="AD199" s="257"/>
+      <c r="Z199" s="239"/>
+      <c r="AA199" s="239"/>
+      <c r="AB199" s="239"/>
+      <c r="AC199" s="239"/>
+      <c r="AD199" s="239"/>
     </row>
     <row r="200" spans="1:33" hidden="1">
       <c r="A200" s="2"/>
-      <c r="B200" s="278" t="s">
+      <c r="B200" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="278"/>
-      <c r="D200" s="278" t="s">
+      <c r="C200" s="250"/>
+      <c r="D200" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="E200" s="278"/>
-      <c r="F200" s="278" t="s">
+      <c r="E200" s="250"/>
+      <c r="F200" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="G200" s="278"/>
-      <c r="H200" s="278" t="s">
+      <c r="G200" s="250"/>
+      <c r="H200" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I200" s="278"/>
-      <c r="L200" s="278" t="s">
+      <c r="I200" s="250"/>
+      <c r="L200" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="M200" s="278"/>
-      <c r="N200" s="278" t="s">
+      <c r="M200" s="250"/>
+      <c r="N200" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="O200" s="278"/>
-      <c r="P200" s="278" t="s">
+      <c r="O200" s="250"/>
+      <c r="P200" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="Q200" s="278"/>
-      <c r="R200" s="278" t="s">
+      <c r="Q200" s="250"/>
+      <c r="R200" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="S200" s="278"/>
+      <c r="S200" s="250"/>
     </row>
     <row r="201" spans="1:33" ht="13.5" hidden="1" customHeight="1">
       <c r="A201" s="2"/>
-      <c r="B201" s="322"/>
-      <c r="C201" s="322"/>
-      <c r="D201" s="322"/>
-      <c r="E201" s="322"/>
-      <c r="F201" s="322"/>
-      <c r="G201" s="322"/>
-      <c r="H201" s="322"/>
-      <c r="I201" s="322"/>
-      <c r="L201" s="322"/>
-      <c r="M201" s="322"/>
-      <c r="N201" s="322"/>
-      <c r="O201" s="322"/>
-      <c r="P201" s="322"/>
-      <c r="Q201" s="322"/>
-      <c r="R201" s="322"/>
-      <c r="S201" s="322"/>
+      <c r="B201" s="282"/>
+      <c r="C201" s="282"/>
+      <c r="D201" s="282"/>
+      <c r="E201" s="282"/>
+      <c r="F201" s="282"/>
+      <c r="G201" s="282"/>
+      <c r="H201" s="282"/>
+      <c r="I201" s="282"/>
+      <c r="L201" s="282"/>
+      <c r="M201" s="282"/>
+      <c r="N201" s="282"/>
+      <c r="O201" s="282"/>
+      <c r="P201" s="282"/>
+      <c r="Q201" s="282"/>
+      <c r="R201" s="282"/>
+      <c r="S201" s="282"/>
       <c r="Y201" s="119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:33" hidden="1">
       <c r="A202" s="2"/>
-      <c r="B202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="C202" s="319"/>
-      <c r="D202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="E202" s="319"/>
-      <c r="F202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="G202" s="319"/>
-      <c r="H202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="I202" s="319"/>
-      <c r="L202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="M202" s="319"/>
-      <c r="N202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="O202" s="319"/>
-      <c r="P202" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q202" s="319"/>
-      <c r="R202" s="323">
+      <c r="B202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" s="284"/>
+      <c r="D202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="E202" s="284"/>
+      <c r="F202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="G202" s="284"/>
+      <c r="H202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="I202" s="284"/>
+      <c r="L202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="M202" s="284"/>
+      <c r="N202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="O202" s="284"/>
+      <c r="P202" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q202" s="284"/>
+      <c r="R202" s="285">
         <v>10000000004</v>
       </c>
-      <c r="S202" s="324"/>
+      <c r="S202" s="286"/>
       <c r="Y202" s="119"/>
     </row>
     <row r="203" spans="1:33" hidden="1">
@@ -19076,7 +19193,7 @@
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -19087,14 +19204,14 @@
     </row>
     <row r="210" spans="1:34" hidden="1">
       <c r="C210" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:34" hidden="1"/>
     <row r="212" spans="1:34" hidden="1"/>
     <row r="213" spans="1:34" hidden="1"/>
-    <row r="214" spans="1:34" ht="80.25" hidden="1">
+    <row r="214" spans="1:34" ht="75.75" hidden="1">
       <c r="C214" s="25" t="s">
         <v>20</v>
       </c>
@@ -19197,7 +19314,7 @@
         <v>5</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
@@ -19276,7 +19393,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
@@ -19355,7 +19472,7 @@
         <v>7</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
@@ -19434,7 +19551,7 @@
         <v>8</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
@@ -19513,7 +19630,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
@@ -19592,7 +19709,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
@@ -19671,7 +19788,7 @@
         <v>11</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
@@ -19750,7 +19867,7 @@
         <v>12</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -19830,7 +19947,7 @@
         <v>5</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
@@ -19909,7 +20026,7 @@
         <v>6</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
@@ -19988,7 +20105,7 @@
         <v>7</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
@@ -20067,7 +20184,7 @@
         <v>8</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
@@ -20146,7 +20263,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
@@ -20225,7 +20342,7 @@
         <v>10</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
@@ -20304,7 +20421,7 @@
         <v>11</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
@@ -20383,7 +20500,7 @@
         <v>12</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
@@ -20462,10 +20579,10 @@
         <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C232" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
@@ -20486,7 +20603,7 @@
         <v>54</v>
       </c>
       <c r="L232" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M232" s="13"/>
       <c r="N232" s="10">
@@ -20544,10 +20661,10 @@
         <v>6</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
@@ -20568,7 +20685,7 @@
         <v>54</v>
       </c>
       <c r="L233" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M233" s="13"/>
       <c r="N233" s="10">
@@ -20626,10 +20743,10 @@
         <v>7</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
@@ -20650,7 +20767,7 @@
         <v>54</v>
       </c>
       <c r="L234" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M234" s="13"/>
       <c r="N234" s="10">
@@ -20708,10 +20825,10 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
@@ -20732,7 +20849,7 @@
         <v>54</v>
       </c>
       <c r="L235" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M235" s="13"/>
       <c r="N235" s="10">
@@ -20790,10 +20907,10 @@
         <v>9</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
@@ -20814,7 +20931,7 @@
         <v>54</v>
       </c>
       <c r="L236" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M236" s="13"/>
       <c r="N236" s="10">
@@ -20872,10 +20989,10 @@
         <v>10</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
@@ -20896,7 +21013,7 @@
         <v>54</v>
       </c>
       <c r="L237" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M237" s="13"/>
       <c r="N237" s="10">
@@ -20954,10 +21071,10 @@
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
@@ -20978,7 +21095,7 @@
         <v>54</v>
       </c>
       <c r="L238" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M238" s="13"/>
       <c r="N238" s="10">
@@ -21036,10 +21153,10 @@
         <v>12</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
@@ -21060,7 +21177,7 @@
         <v>54</v>
       </c>
       <c r="L239" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M239" s="13"/>
       <c r="N239" s="10">
@@ -21156,86 +21273,86 @@
     <row r="243" spans="3:20" hidden="1"/>
     <row r="244" spans="3:20" hidden="1"/>
     <row r="245" spans="3:20" hidden="1">
-      <c r="J245" s="258">
+      <c r="J245" s="334">
         <v>43466</v>
       </c>
-      <c r="K245" s="258"/>
-      <c r="P245" s="258">
+      <c r="K245" s="334"/>
+      <c r="P245" s="334">
         <v>43769</v>
       </c>
-      <c r="Q245" s="258"/>
-      <c r="S245" s="258">
+      <c r="Q245" s="334"/>
+      <c r="S245" s="334">
         <v>43830</v>
       </c>
-      <c r="T245" s="258"/>
+      <c r="T245" s="334"/>
     </row>
     <row r="246" spans="3:20" hidden="1">
-      <c r="J246" s="258"/>
-      <c r="K246" s="258"/>
-      <c r="P246" s="258"/>
-      <c r="Q246" s="258"/>
-      <c r="S246" s="258"/>
-      <c r="T246" s="258"/>
+      <c r="J246" s="334"/>
+      <c r="K246" s="334"/>
+      <c r="P246" s="334"/>
+      <c r="Q246" s="334"/>
+      <c r="S246" s="334"/>
+      <c r="T246" s="334"/>
     </row>
     <row r="247" spans="3:20" hidden="1">
-      <c r="C247" s="268" t="s">
+      <c r="C247" s="333" t="s">
         <v>70</v>
       </c>
-      <c r="D247" s="268"/>
-      <c r="E247" s="268"/>
-      <c r="F247" s="257" t="s">
+      <c r="D247" s="333"/>
+      <c r="E247" s="333"/>
+      <c r="F247" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="G247" s="257"/>
-      <c r="H247" s="257" t="s">
+      <c r="G247" s="239"/>
+      <c r="H247" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="I247" s="257"/>
+      <c r="I247" s="239"/>
     </row>
     <row r="248" spans="3:20" hidden="1">
-      <c r="C248" s="268"/>
-      <c r="D248" s="268"/>
-      <c r="E248" s="268"/>
-      <c r="F248" s="257"/>
-      <c r="G248" s="257"/>
-      <c r="H248" s="257"/>
-      <c r="I248" s="257"/>
+      <c r="C248" s="333"/>
+      <c r="D248" s="333"/>
+      <c r="E248" s="333"/>
+      <c r="F248" s="239"/>
+      <c r="G248" s="239"/>
+      <c r="H248" s="239"/>
+      <c r="I248" s="239"/>
     </row>
     <row r="249" spans="3:20" hidden="1">
-      <c r="C249" s="268" t="s">
+      <c r="C249" s="333" t="s">
         <v>71</v>
       </c>
-      <c r="D249" s="268"/>
-      <c r="E249" s="268"/>
-      <c r="F249" s="257" t="s">
+      <c r="D249" s="333"/>
+      <c r="E249" s="333"/>
+      <c r="F249" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="G249" s="257"/>
-      <c r="H249" s="257" t="s">
+      <c r="G249" s="239"/>
+      <c r="H249" s="239" t="s">
         <v>78</v>
       </c>
-      <c r="I249" s="257"/>
+      <c r="I249" s="239"/>
     </row>
     <row r="250" spans="3:20" hidden="1">
-      <c r="C250" s="268"/>
-      <c r="D250" s="268"/>
-      <c r="E250" s="268"/>
-      <c r="F250" s="257"/>
-      <c r="G250" s="257"/>
-      <c r="H250" s="257"/>
-      <c r="I250" s="257"/>
+      <c r="C250" s="333"/>
+      <c r="D250" s="333"/>
+      <c r="E250" s="333"/>
+      <c r="F250" s="239"/>
+      <c r="G250" s="239"/>
+      <c r="H250" s="239"/>
+      <c r="I250" s="239"/>
     </row>
     <row r="251" spans="3:20" hidden="1">
-      <c r="C251" s="268" t="s">
+      <c r="C251" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="D251" s="268"/>
-      <c r="E251" s="268"/>
+      <c r="D251" s="333"/>
+      <c r="E251" s="333"/>
     </row>
     <row r="252" spans="3:20" hidden="1">
-      <c r="C252" s="268"/>
-      <c r="D252" s="268"/>
-      <c r="E252" s="268"/>
+      <c r="C252" s="333"/>
+      <c r="D252" s="333"/>
+      <c r="E252" s="333"/>
     </row>
     <row r="253" spans="3:20" hidden="1">
       <c r="D253" s="2"/>
@@ -21272,86 +21389,86 @@
     </row>
     <row r="257" spans="3:20" hidden="1"/>
     <row r="258" spans="3:20" hidden="1">
-      <c r="J258" s="258">
+      <c r="J258" s="334">
         <v>43466</v>
       </c>
-      <c r="K258" s="269"/>
-      <c r="P258" s="258">
+      <c r="K258" s="335"/>
+      <c r="P258" s="334">
         <v>43769</v>
       </c>
-      <c r="Q258" s="269"/>
-      <c r="S258" s="258">
+      <c r="Q258" s="335"/>
+      <c r="S258" s="334">
         <v>43830</v>
       </c>
-      <c r="T258" s="269"/>
+      <c r="T258" s="335"/>
     </row>
     <row r="259" spans="3:20" hidden="1">
-      <c r="J259" s="269"/>
-      <c r="K259" s="269"/>
-      <c r="P259" s="269"/>
-      <c r="Q259" s="269"/>
-      <c r="S259" s="269"/>
-      <c r="T259" s="269"/>
+      <c r="J259" s="335"/>
+      <c r="K259" s="335"/>
+      <c r="P259" s="335"/>
+      <c r="Q259" s="335"/>
+      <c r="S259" s="335"/>
+      <c r="T259" s="335"/>
     </row>
     <row r="260" spans="3:20" hidden="1">
-      <c r="C260" s="268" t="s">
+      <c r="C260" s="333" t="s">
         <v>70</v>
       </c>
-      <c r="D260" s="268"/>
-      <c r="E260" s="268"/>
-      <c r="F260" s="257" t="s">
+      <c r="D260" s="333"/>
+      <c r="E260" s="333"/>
+      <c r="F260" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="G260" s="257"/>
-      <c r="H260" s="257" t="s">
+      <c r="G260" s="239"/>
+      <c r="H260" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="I260" s="257"/>
+      <c r="I260" s="239"/>
     </row>
     <row r="261" spans="3:20" hidden="1">
-      <c r="C261" s="268"/>
-      <c r="D261" s="268"/>
-      <c r="E261" s="268"/>
-      <c r="F261" s="257"/>
-      <c r="G261" s="257"/>
-      <c r="H261" s="257"/>
-      <c r="I261" s="257"/>
+      <c r="C261" s="333"/>
+      <c r="D261" s="333"/>
+      <c r="E261" s="333"/>
+      <c r="F261" s="239"/>
+      <c r="G261" s="239"/>
+      <c r="H261" s="239"/>
+      <c r="I261" s="239"/>
     </row>
     <row r="262" spans="3:20" hidden="1">
-      <c r="C262" s="268" t="s">
+      <c r="C262" s="333" t="s">
         <v>71</v>
       </c>
-      <c r="D262" s="268"/>
-      <c r="E262" s="268"/>
-      <c r="F262" s="257" t="s">
+      <c r="D262" s="333"/>
+      <c r="E262" s="333"/>
+      <c r="F262" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="G262" s="257"/>
-      <c r="H262" s="257" t="s">
+      <c r="G262" s="239"/>
+      <c r="H262" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="I262" s="257"/>
+      <c r="I262" s="239"/>
     </row>
     <row r="263" spans="3:20" hidden="1">
-      <c r="C263" s="268"/>
-      <c r="D263" s="268"/>
-      <c r="E263" s="268"/>
-      <c r="F263" s="257"/>
-      <c r="G263" s="257"/>
-      <c r="H263" s="257"/>
-      <c r="I263" s="257"/>
+      <c r="C263" s="333"/>
+      <c r="D263" s="333"/>
+      <c r="E263" s="333"/>
+      <c r="F263" s="239"/>
+      <c r="G263" s="239"/>
+      <c r="H263" s="239"/>
+      <c r="I263" s="239"/>
     </row>
     <row r="264" spans="3:20" hidden="1">
-      <c r="C264" s="268" t="s">
+      <c r="C264" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="D264" s="268"/>
-      <c r="E264" s="268"/>
+      <c r="D264" s="333"/>
+      <c r="E264" s="333"/>
     </row>
     <row r="265" spans="3:20" hidden="1">
-      <c r="C265" s="268"/>
-      <c r="D265" s="268"/>
-      <c r="E265" s="268"/>
+      <c r="C265" s="333"/>
+      <c r="D265" s="333"/>
+      <c r="E265" s="333"/>
     </row>
     <row r="266" spans="3:20" hidden="1">
       <c r="D266" s="2"/>
@@ -21445,28 +21562,28 @@
       </c>
     </row>
     <row r="279" spans="1:34" ht="16.5" hidden="1" thickBot="1">
-      <c r="B279" s="288" t="s">
+      <c r="B279" s="320" t="s">
         <v>113</v>
       </c>
-      <c r="C279" s="289"/>
-      <c r="D279" s="289"/>
-      <c r="E279" s="289"/>
-      <c r="F279" s="289"/>
-      <c r="G279" s="289"/>
-      <c r="H279" s="289"/>
-      <c r="I279" s="289"/>
-      <c r="J279" s="289"/>
-      <c r="K279" s="289"/>
-      <c r="L279" s="290"/>
-      <c r="W279" s="284" t="s">
+      <c r="C279" s="321"/>
+      <c r="D279" s="321"/>
+      <c r="E279" s="321"/>
+      <c r="F279" s="321"/>
+      <c r="G279" s="321"/>
+      <c r="H279" s="321"/>
+      <c r="I279" s="321"/>
+      <c r="J279" s="321"/>
+      <c r="K279" s="321"/>
+      <c r="L279" s="322"/>
+      <c r="W279" s="317" t="s">
         <v>137</v>
       </c>
-      <c r="X279" s="285"/>
-      <c r="Y279" s="285"/>
-      <c r="Z279" s="285"/>
-      <c r="AA279" s="285"/>
-      <c r="AB279" s="285"/>
-      <c r="AC279" s="286"/>
+      <c r="X279" s="318"/>
+      <c r="Y279" s="318"/>
+      <c r="Z279" s="318"/>
+      <c r="AA279" s="318"/>
+      <c r="AB279" s="318"/>
+      <c r="AC279" s="319"/>
     </row>
     <row r="280" spans="1:34" ht="48" hidden="1" thickBot="1">
       <c r="B280" s="68" t="s">
@@ -21582,21 +21699,21 @@
     </row>
     <row r="282" spans="1:34" ht="12" hidden="1" thickBot="1"/>
     <row r="283" spans="1:34" ht="15.75" hidden="1">
-      <c r="B283" s="291" t="s">
+      <c r="B283" s="323" t="s">
         <v>119</v>
       </c>
-      <c r="C283" s="292"/>
-      <c r="D283" s="292"/>
-      <c r="E283" s="292"/>
-      <c r="F283" s="292"/>
-      <c r="G283" s="292"/>
-      <c r="H283" s="292"/>
-      <c r="I283" s="292"/>
-      <c r="J283" s="292"/>
-      <c r="K283" s="292"/>
-      <c r="L283" s="292"/>
-      <c r="M283" s="292"/>
-      <c r="N283" s="293"/>
+      <c r="C283" s="324"/>
+      <c r="D283" s="324"/>
+      <c r="E283" s="324"/>
+      <c r="F283" s="324"/>
+      <c r="G283" s="324"/>
+      <c r="H283" s="324"/>
+      <c r="I283" s="324"/>
+      <c r="J283" s="324"/>
+      <c r="K283" s="324"/>
+      <c r="L283" s="324"/>
+      <c r="M283" s="324"/>
+      <c r="N283" s="325"/>
     </row>
     <row r="284" spans="1:34" ht="48" hidden="1" thickBot="1">
       <c r="B284" s="63" t="s">
@@ -21766,106 +21883,106 @@
     </row>
     <row r="288" spans="1:34" ht="12" hidden="1" thickBot="1"/>
     <row r="289" spans="2:29" ht="15.75" hidden="1">
-      <c r="B289" s="303" t="s">
+      <c r="B289" s="326" t="s">
         <v>88</v>
       </c>
-      <c r="C289" s="304"/>
-      <c r="D289" s="304"/>
-      <c r="E289" s="304"/>
-      <c r="F289" s="304"/>
-      <c r="G289" s="304"/>
-      <c r="H289" s="304"/>
-      <c r="I289" s="304"/>
-      <c r="J289" s="304"/>
-      <c r="K289" s="304"/>
-      <c r="L289" s="304"/>
-      <c r="M289" s="304"/>
-      <c r="N289" s="304"/>
-      <c r="O289" s="304"/>
-      <c r="P289" s="304"/>
-      <c r="Q289" s="304"/>
-      <c r="R289" s="304"/>
-      <c r="S289" s="304"/>
-      <c r="T289" s="304"/>
-      <c r="U289" s="305"/>
+      <c r="C289" s="327"/>
+      <c r="D289" s="327"/>
+      <c r="E289" s="327"/>
+      <c r="F289" s="327"/>
+      <c r="G289" s="327"/>
+      <c r="H289" s="327"/>
+      <c r="I289" s="327"/>
+      <c r="J289" s="327"/>
+      <c r="K289" s="327"/>
+      <c r="L289" s="327"/>
+      <c r="M289" s="327"/>
+      <c r="N289" s="327"/>
+      <c r="O289" s="327"/>
+      <c r="P289" s="327"/>
+      <c r="Q289" s="327"/>
+      <c r="R289" s="327"/>
+      <c r="S289" s="327"/>
+      <c r="T289" s="327"/>
+      <c r="U289" s="328"/>
     </row>
     <row r="290" spans="2:29" ht="11.25" hidden="1" customHeight="1">
-      <c r="B290" s="310" t="s">
+      <c r="B290" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="C290" s="282" t="s">
+      <c r="C290" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="D290" s="282" t="s">
+      <c r="D290" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="E290" s="283" t="s">
+      <c r="E290" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="F290" s="283"/>
-      <c r="G290" s="282" t="s">
+      <c r="F290" s="305"/>
+      <c r="G290" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="H290" s="282" t="s">
+      <c r="H290" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="I290" s="283" t="s">
+      <c r="I290" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="J290" s="282" t="s">
+      <c r="J290" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="K290" s="282" t="s">
+      <c r="K290" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="L290" s="282" t="s">
+      <c r="L290" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="M290" s="282" t="s">
+      <c r="M290" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="N290" s="283" t="s">
+      <c r="N290" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="O290" s="282" t="s">
+      <c r="O290" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="P290" s="282"/>
-      <c r="Q290" s="282" t="s">
+      <c r="P290" s="304"/>
+      <c r="Q290" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="R290" s="282"/>
-      <c r="S290" s="282" t="s">
+      <c r="R290" s="304"/>
+      <c r="S290" s="304" t="s">
         <v>104</v>
       </c>
-      <c r="T290" s="306" t="s">
+      <c r="T290" s="295" t="s">
         <v>150</v>
       </c>
-      <c r="U290" s="308" t="s">
+      <c r="U290" s="297" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="291" spans="2:29" ht="12" hidden="1" customHeight="1">
-      <c r="B291" s="311"/>
-      <c r="C291" s="282"/>
-      <c r="D291" s="282"/>
-      <c r="E291" s="283"/>
-      <c r="F291" s="283"/>
-      <c r="G291" s="282"/>
-      <c r="H291" s="282"/>
-      <c r="I291" s="282"/>
-      <c r="J291" s="282"/>
-      <c r="K291" s="282"/>
-      <c r="L291" s="282"/>
-      <c r="M291" s="282"/>
-      <c r="N291" s="282"/>
-      <c r="O291" s="282"/>
-      <c r="P291" s="282"/>
-      <c r="Q291" s="282"/>
-      <c r="R291" s="282"/>
-      <c r="S291" s="282"/>
-      <c r="T291" s="307"/>
-      <c r="U291" s="309"/>
+      <c r="B291" s="303"/>
+      <c r="C291" s="304"/>
+      <c r="D291" s="304"/>
+      <c r="E291" s="305"/>
+      <c r="F291" s="305"/>
+      <c r="G291" s="304"/>
+      <c r="H291" s="304"/>
+      <c r="I291" s="304"/>
+      <c r="J291" s="304"/>
+      <c r="K291" s="304"/>
+      <c r="L291" s="304"/>
+      <c r="M291" s="304"/>
+      <c r="N291" s="304"/>
+      <c r="O291" s="304"/>
+      <c r="P291" s="304"/>
+      <c r="Q291" s="304"/>
+      <c r="R291" s="304"/>
+      <c r="S291" s="304"/>
+      <c r="T291" s="296"/>
+      <c r="U291" s="298"/>
     </row>
     <row r="292" spans="2:29" ht="14.25" hidden="1">
       <c r="B292" s="76" t="s">
@@ -21877,10 +21994,10 @@
       <c r="D292" s="85">
         <v>3333</v>
       </c>
-      <c r="E292" s="300">
+      <c r="E292" s="310">
         <v>43595</v>
       </c>
-      <c r="F292" s="300"/>
+      <c r="F292" s="310"/>
       <c r="G292" s="77">
         <v>1</v>
       </c>
@@ -21905,14 +22022,14 @@
       <c r="N292" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="O292" s="296" t="s">
+      <c r="O292" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="P292" s="296"/>
-      <c r="Q292" s="287" t="s">
+      <c r="P292" s="311"/>
+      <c r="Q292" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="R292" s="287"/>
+      <c r="R292" s="312"/>
       <c r="S292" s="102">
         <v>5.7599999999999998E-2</v>
       </c>
@@ -21931,10 +22048,10 @@
       <c r="D293" s="80">
         <v>3333</v>
       </c>
-      <c r="E293" s="301">
+      <c r="E293" s="307">
         <v>43616</v>
       </c>
-      <c r="F293" s="301"/>
+      <c r="F293" s="307"/>
       <c r="G293" s="74">
         <v>1</v>
       </c>
@@ -21959,14 +22076,14 @@
       <c r="N293" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O293" s="297" t="s">
+      <c r="O293" s="313" t="s">
         <v>131</v>
       </c>
-      <c r="P293" s="297"/>
-      <c r="Q293" s="294" t="s">
+      <c r="P293" s="313"/>
+      <c r="Q293" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R293" s="294"/>
+      <c r="R293" s="309"/>
       <c r="S293" s="103">
         <v>0</v>
       </c>
@@ -21985,10 +22102,10 @@
       <c r="D294" s="80">
         <v>4444</v>
       </c>
-      <c r="E294" s="301">
+      <c r="E294" s="307">
         <v>43616</v>
       </c>
-      <c r="F294" s="301"/>
+      <c r="F294" s="307"/>
       <c r="G294" s="74">
         <v>1</v>
       </c>
@@ -22013,14 +22130,14 @@
       <c r="N294" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O294" s="298" t="s">
+      <c r="O294" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="P294" s="298"/>
-      <c r="Q294" s="294" t="s">
+      <c r="P294" s="308"/>
+      <c r="Q294" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R294" s="294"/>
+      <c r="R294" s="309"/>
       <c r="S294" s="103">
         <v>0</v>
       </c>
@@ -22039,10 +22156,10 @@
       <c r="D295" s="81">
         <v>5555</v>
       </c>
-      <c r="E295" s="302">
+      <c r="E295" s="314">
         <v>43616</v>
       </c>
-      <c r="F295" s="302"/>
+      <c r="F295" s="314"/>
       <c r="G295" s="82">
         <v>1</v>
       </c>
@@ -22067,14 +22184,14 @@
       <c r="N295" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="O295" s="299" t="s">
+      <c r="O295" s="315" t="s">
         <v>135</v>
       </c>
-      <c r="P295" s="299"/>
-      <c r="Q295" s="295" t="s">
+      <c r="P295" s="315"/>
+      <c r="Q295" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="R295" s="295"/>
+      <c r="R295" s="316"/>
       <c r="S295" s="105">
         <v>0</v>
       </c>
@@ -22224,10 +22341,10 @@
       <c r="D300" s="85">
         <v>3333</v>
       </c>
-      <c r="E300" s="300">
+      <c r="E300" s="310">
         <v>43595</v>
       </c>
-      <c r="F300" s="300"/>
+      <c r="F300" s="310"/>
       <c r="G300" s="77">
         <v>1</v>
       </c>
@@ -22252,14 +22369,14 @@
       <c r="N300" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="O300" s="296" t="s">
+      <c r="O300" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="P300" s="296"/>
-      <c r="Q300" s="287" t="s">
+      <c r="P300" s="311"/>
+      <c r="Q300" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="R300" s="287"/>
+      <c r="R300" s="312"/>
       <c r="S300" s="108">
         <v>5.7599999999999998E-2</v>
       </c>
@@ -22278,10 +22395,10 @@
       <c r="D301" s="80">
         <v>3333</v>
       </c>
-      <c r="E301" s="301">
+      <c r="E301" s="307">
         <v>43616</v>
       </c>
-      <c r="F301" s="301"/>
+      <c r="F301" s="307"/>
       <c r="G301" s="74">
         <v>1</v>
       </c>
@@ -22306,14 +22423,14 @@
       <c r="N301" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O301" s="297" t="s">
+      <c r="O301" s="313" t="s">
         <v>131</v>
       </c>
-      <c r="P301" s="297"/>
-      <c r="Q301" s="294" t="s">
+      <c r="P301" s="313"/>
+      <c r="Q301" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R301" s="294"/>
+      <c r="R301" s="309"/>
       <c r="S301" s="109">
         <v>0</v>
       </c>
@@ -22332,10 +22449,10 @@
       <c r="D302" s="80">
         <v>4444</v>
       </c>
-      <c r="E302" s="301">
+      <c r="E302" s="307">
         <v>43616</v>
       </c>
-      <c r="F302" s="301"/>
+      <c r="F302" s="307"/>
       <c r="G302" s="74">
         <v>1</v>
       </c>
@@ -22360,14 +22477,14 @@
       <c r="N302" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O302" s="298" t="s">
+      <c r="O302" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="P302" s="298"/>
-      <c r="Q302" s="294" t="s">
+      <c r="P302" s="308"/>
+      <c r="Q302" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R302" s="294"/>
+      <c r="R302" s="309"/>
       <c r="S302" s="109">
         <v>0</v>
       </c>
@@ -22386,10 +22503,10 @@
       <c r="D303" s="81">
         <v>5555</v>
       </c>
-      <c r="E303" s="302">
+      <c r="E303" s="314">
         <v>43616</v>
       </c>
-      <c r="F303" s="302"/>
+      <c r="F303" s="314"/>
       <c r="G303" s="82">
         <v>1</v>
       </c>
@@ -22414,14 +22531,14 @@
       <c r="N303" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="O303" s="299" t="s">
+      <c r="O303" s="315" t="s">
         <v>135</v>
       </c>
-      <c r="P303" s="299"/>
-      <c r="Q303" s="295" t="s">
+      <c r="P303" s="315"/>
+      <c r="Q303" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="R303" s="295"/>
+      <c r="R303" s="316"/>
       <c r="S303" s="110">
         <v>0</v>
       </c>
@@ -22440,10 +22557,10 @@
       <c r="D304" s="85">
         <v>3333</v>
       </c>
-      <c r="E304" s="300">
+      <c r="E304" s="310">
         <v>43595</v>
       </c>
-      <c r="F304" s="300"/>
+      <c r="F304" s="310"/>
       <c r="G304" s="77">
         <v>1</v>
       </c>
@@ -22468,14 +22585,14 @@
       <c r="N304" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="O304" s="296" t="s">
+      <c r="O304" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="P304" s="296"/>
-      <c r="Q304" s="287" t="s">
+      <c r="P304" s="311"/>
+      <c r="Q304" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="R304" s="287"/>
+      <c r="R304" s="312"/>
       <c r="S304" s="108">
         <v>5.7599999999999998E-2</v>
       </c>
@@ -22503,106 +22620,106 @@
     <row r="314" spans="2:21" hidden="1"/>
     <row r="315" spans="2:21" ht="12" hidden="1" thickBot="1"/>
     <row r="316" spans="2:21" ht="15.75" hidden="1">
-      <c r="B316" s="313" t="s">
+      <c r="B316" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="C316" s="314"/>
-      <c r="D316" s="314"/>
-      <c r="E316" s="314"/>
-      <c r="F316" s="314"/>
-      <c r="G316" s="314"/>
-      <c r="H316" s="314"/>
-      <c r="I316" s="314"/>
-      <c r="J316" s="314"/>
-      <c r="K316" s="314"/>
-      <c r="L316" s="314"/>
-      <c r="M316" s="314"/>
-      <c r="N316" s="314"/>
-      <c r="O316" s="314"/>
-      <c r="P316" s="314"/>
-      <c r="Q316" s="314"/>
-      <c r="R316" s="314"/>
-      <c r="S316" s="314"/>
-      <c r="T316" s="314"/>
-      <c r="U316" s="315"/>
+      <c r="C316" s="300"/>
+      <c r="D316" s="300"/>
+      <c r="E316" s="300"/>
+      <c r="F316" s="300"/>
+      <c r="G316" s="300"/>
+      <c r="H316" s="300"/>
+      <c r="I316" s="300"/>
+      <c r="J316" s="300"/>
+      <c r="K316" s="300"/>
+      <c r="L316" s="300"/>
+      <c r="M316" s="300"/>
+      <c r="N316" s="300"/>
+      <c r="O316" s="300"/>
+      <c r="P316" s="300"/>
+      <c r="Q316" s="300"/>
+      <c r="R316" s="300"/>
+      <c r="S316" s="300"/>
+      <c r="T316" s="300"/>
+      <c r="U316" s="301"/>
     </row>
     <row r="317" spans="2:21" hidden="1">
-      <c r="B317" s="310" t="s">
+      <c r="B317" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="C317" s="282" t="s">
+      <c r="C317" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="D317" s="282" t="s">
+      <c r="D317" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="E317" s="283" t="s">
+      <c r="E317" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="F317" s="283"/>
-      <c r="G317" s="282" t="s">
+      <c r="F317" s="305"/>
+      <c r="G317" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="H317" s="282" t="s">
+      <c r="H317" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="I317" s="283" t="s">
+      <c r="I317" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="J317" s="282" t="s">
+      <c r="J317" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="K317" s="282" t="s">
+      <c r="K317" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="L317" s="282" t="s">
+      <c r="L317" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="M317" s="282" t="s">
+      <c r="M317" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="N317" s="283" t="s">
+      <c r="N317" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="O317" s="282" t="s">
+      <c r="O317" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="P317" s="282"/>
-      <c r="Q317" s="282" t="s">
+      <c r="P317" s="304"/>
+      <c r="Q317" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="R317" s="282"/>
-      <c r="S317" s="312" t="s">
+      <c r="R317" s="304"/>
+      <c r="S317" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="T317" s="306" t="s">
+      <c r="T317" s="295" t="s">
         <v>150</v>
       </c>
-      <c r="U317" s="308" t="s">
+      <c r="U317" s="297" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="318" spans="2:21" hidden="1">
-      <c r="B318" s="311"/>
-      <c r="C318" s="282"/>
-      <c r="D318" s="282"/>
-      <c r="E318" s="283"/>
-      <c r="F318" s="283"/>
-      <c r="G318" s="282"/>
-      <c r="H318" s="282"/>
-      <c r="I318" s="282"/>
-      <c r="J318" s="282"/>
-      <c r="K318" s="282"/>
-      <c r="L318" s="282"/>
-      <c r="M318" s="282"/>
-      <c r="N318" s="282"/>
-      <c r="O318" s="282"/>
-      <c r="P318" s="282"/>
-      <c r="Q318" s="282"/>
-      <c r="R318" s="282"/>
-      <c r="S318" s="312"/>
-      <c r="T318" s="307"/>
-      <c r="U318" s="309"/>
+      <c r="B318" s="303"/>
+      <c r="C318" s="304"/>
+      <c r="D318" s="304"/>
+      <c r="E318" s="305"/>
+      <c r="F318" s="305"/>
+      <c r="G318" s="304"/>
+      <c r="H318" s="304"/>
+      <c r="I318" s="304"/>
+      <c r="J318" s="304"/>
+      <c r="K318" s="304"/>
+      <c r="L318" s="304"/>
+      <c r="M318" s="304"/>
+      <c r="N318" s="304"/>
+      <c r="O318" s="304"/>
+      <c r="P318" s="304"/>
+      <c r="Q318" s="304"/>
+      <c r="R318" s="304"/>
+      <c r="S318" s="306"/>
+      <c r="T318" s="296"/>
+      <c r="U318" s="298"/>
     </row>
     <row r="319" spans="2:21" ht="14.25" hidden="1">
       <c r="B319" s="50" t="s">
@@ -22614,10 +22731,10 @@
       <c r="D319" s="80">
         <v>3333</v>
       </c>
-      <c r="E319" s="301">
+      <c r="E319" s="307">
         <v>43616</v>
       </c>
-      <c r="F319" s="301"/>
+      <c r="F319" s="307"/>
       <c r="G319" s="74">
         <v>1</v>
       </c>
@@ -22642,14 +22759,14 @@
       <c r="N319" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O319" s="297" t="s">
+      <c r="O319" s="313" t="s">
         <v>143</v>
       </c>
-      <c r="P319" s="297"/>
-      <c r="Q319" s="294" t="s">
+      <c r="P319" s="313"/>
+      <c r="Q319" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R319" s="294"/>
+      <c r="R319" s="309"/>
       <c r="S319" s="109">
         <v>0</v>
       </c>
@@ -22670,10 +22787,10 @@
       <c r="D320" s="80">
         <v>4444</v>
       </c>
-      <c r="E320" s="301">
+      <c r="E320" s="307">
         <v>43616</v>
       </c>
-      <c r="F320" s="301"/>
+      <c r="F320" s="307"/>
       <c r="G320" s="74">
         <v>1</v>
       </c>
@@ -22698,14 +22815,14 @@
       <c r="N320" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O320" s="298" t="s">
+      <c r="O320" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="P320" s="298"/>
-      <c r="Q320" s="294" t="s">
+      <c r="P320" s="308"/>
+      <c r="Q320" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R320" s="294"/>
+      <c r="R320" s="309"/>
       <c r="S320" s="109">
         <v>0</v>
       </c>
@@ -22726,10 +22843,10 @@
       <c r="D321" s="81">
         <v>5555</v>
       </c>
-      <c r="E321" s="302">
+      <c r="E321" s="314">
         <v>43616</v>
       </c>
-      <c r="F321" s="302"/>
+      <c r="F321" s="314"/>
       <c r="G321" s="82">
         <v>1</v>
       </c>
@@ -22754,14 +22871,14 @@
       <c r="N321" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="O321" s="299" t="s">
+      <c r="O321" s="315" t="s">
         <v>145</v>
       </c>
-      <c r="P321" s="299"/>
-      <c r="Q321" s="295" t="s">
+      <c r="P321" s="315"/>
+      <c r="Q321" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="R321" s="295"/>
+      <c r="R321" s="316"/>
       <c r="S321" s="110">
         <v>0</v>
       </c>
@@ -22775,106 +22892,106 @@
     <row r="322" spans="2:21" hidden="1"/>
     <row r="323" spans="2:21" ht="12" hidden="1" thickBot="1"/>
     <row r="324" spans="2:21" ht="15.75" hidden="1">
-      <c r="B324" s="313" t="s">
+      <c r="B324" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="C324" s="314"/>
-      <c r="D324" s="314"/>
-      <c r="E324" s="314"/>
-      <c r="F324" s="314"/>
-      <c r="G324" s="314"/>
-      <c r="H324" s="314"/>
-      <c r="I324" s="314"/>
-      <c r="J324" s="314"/>
-      <c r="K324" s="314"/>
-      <c r="L324" s="314"/>
-      <c r="M324" s="314"/>
-      <c r="N324" s="314"/>
-      <c r="O324" s="314"/>
-      <c r="P324" s="314"/>
-      <c r="Q324" s="314"/>
-      <c r="R324" s="314"/>
-      <c r="S324" s="314"/>
-      <c r="T324" s="314"/>
-      <c r="U324" s="315"/>
+      <c r="C324" s="300"/>
+      <c r="D324" s="300"/>
+      <c r="E324" s="300"/>
+      <c r="F324" s="300"/>
+      <c r="G324" s="300"/>
+      <c r="H324" s="300"/>
+      <c r="I324" s="300"/>
+      <c r="J324" s="300"/>
+      <c r="K324" s="300"/>
+      <c r="L324" s="300"/>
+      <c r="M324" s="300"/>
+      <c r="N324" s="300"/>
+      <c r="O324" s="300"/>
+      <c r="P324" s="300"/>
+      <c r="Q324" s="300"/>
+      <c r="R324" s="300"/>
+      <c r="S324" s="300"/>
+      <c r="T324" s="300"/>
+      <c r="U324" s="301"/>
     </row>
     <row r="325" spans="2:21" hidden="1">
-      <c r="B325" s="310" t="s">
+      <c r="B325" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="C325" s="282" t="s">
+      <c r="C325" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="D325" s="282" t="s">
+      <c r="D325" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="E325" s="283" t="s">
+      <c r="E325" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="F325" s="283"/>
-      <c r="G325" s="282" t="s">
+      <c r="F325" s="305"/>
+      <c r="G325" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="H325" s="282" t="s">
+      <c r="H325" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="I325" s="283" t="s">
+      <c r="I325" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="J325" s="282" t="s">
+      <c r="J325" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="K325" s="282" t="s">
+      <c r="K325" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="L325" s="282" t="s">
+      <c r="L325" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="M325" s="282" t="s">
+      <c r="M325" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="N325" s="283" t="s">
+      <c r="N325" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="O325" s="282" t="s">
+      <c r="O325" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="P325" s="282"/>
-      <c r="Q325" s="282" t="s">
+      <c r="P325" s="304"/>
+      <c r="Q325" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="R325" s="282"/>
-      <c r="S325" s="312" t="s">
+      <c r="R325" s="304"/>
+      <c r="S325" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="T325" s="306" t="s">
+      <c r="T325" s="295" t="s">
         <v>150</v>
       </c>
-      <c r="U325" s="308" t="s">
+      <c r="U325" s="297" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="326" spans="2:21" hidden="1">
-      <c r="B326" s="311"/>
-      <c r="C326" s="282"/>
-      <c r="D326" s="282"/>
-      <c r="E326" s="283"/>
-      <c r="F326" s="283"/>
-      <c r="G326" s="282"/>
-      <c r="H326" s="282"/>
-      <c r="I326" s="282"/>
-      <c r="J326" s="282"/>
-      <c r="K326" s="282"/>
-      <c r="L326" s="282"/>
-      <c r="M326" s="282"/>
-      <c r="N326" s="282"/>
-      <c r="O326" s="282"/>
-      <c r="P326" s="282"/>
-      <c r="Q326" s="282"/>
-      <c r="R326" s="282"/>
-      <c r="S326" s="312"/>
-      <c r="T326" s="307"/>
-      <c r="U326" s="309"/>
+      <c r="B326" s="303"/>
+      <c r="C326" s="304"/>
+      <c r="D326" s="304"/>
+      <c r="E326" s="305"/>
+      <c r="F326" s="305"/>
+      <c r="G326" s="304"/>
+      <c r="H326" s="304"/>
+      <c r="I326" s="304"/>
+      <c r="J326" s="304"/>
+      <c r="K326" s="304"/>
+      <c r="L326" s="304"/>
+      <c r="M326" s="304"/>
+      <c r="N326" s="304"/>
+      <c r="O326" s="304"/>
+      <c r="P326" s="304"/>
+      <c r="Q326" s="304"/>
+      <c r="R326" s="304"/>
+      <c r="S326" s="306"/>
+      <c r="T326" s="296"/>
+      <c r="U326" s="298"/>
     </row>
     <row r="327" spans="2:21" ht="14.25" hidden="1">
       <c r="B327" s="76" t="s">
@@ -22886,10 +23003,10 @@
       <c r="D327" s="85">
         <v>3333</v>
       </c>
-      <c r="E327" s="300">
+      <c r="E327" s="310">
         <v>43595</v>
       </c>
-      <c r="F327" s="300"/>
+      <c r="F327" s="310"/>
       <c r="G327" s="77">
         <v>1</v>
       </c>
@@ -22914,14 +23031,14 @@
       <c r="N327" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="O327" s="296" t="s">
+      <c r="O327" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="P327" s="296"/>
-      <c r="Q327" s="287" t="s">
+      <c r="P327" s="311"/>
+      <c r="Q327" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="R327" s="287"/>
+      <c r="R327" s="312"/>
       <c r="S327" s="108">
         <v>5.7599999999999998E-2</v>
       </c>
@@ -22940,10 +23057,10 @@
       <c r="D328" s="80">
         <v>3333</v>
       </c>
-      <c r="E328" s="301">
+      <c r="E328" s="307">
         <v>43616</v>
       </c>
-      <c r="F328" s="301"/>
+      <c r="F328" s="307"/>
       <c r="G328" s="74">
         <v>1</v>
       </c>
@@ -22968,14 +23085,14 @@
       <c r="N328" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O328" s="297" t="s">
+      <c r="O328" s="313" t="s">
         <v>131</v>
       </c>
-      <c r="P328" s="297"/>
-      <c r="Q328" s="294" t="s">
+      <c r="P328" s="313"/>
+      <c r="Q328" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R328" s="294"/>
+      <c r="R328" s="309"/>
       <c r="S328" s="109">
         <v>0</v>
       </c>
@@ -22994,10 +23111,10 @@
       <c r="D329" s="80">
         <v>4444</v>
       </c>
-      <c r="E329" s="301">
+      <c r="E329" s="307">
         <v>43616</v>
       </c>
-      <c r="F329" s="301"/>
+      <c r="F329" s="307"/>
       <c r="G329" s="74">
         <v>1</v>
       </c>
@@ -23022,14 +23139,14 @@
       <c r="N329" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="O329" s="298" t="s">
+      <c r="O329" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="P329" s="298"/>
-      <c r="Q329" s="294" t="s">
+      <c r="P329" s="308"/>
+      <c r="Q329" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R329" s="294"/>
+      <c r="R329" s="309"/>
       <c r="S329" s="109">
         <v>0</v>
       </c>
@@ -23048,10 +23165,10 @@
       <c r="D330" s="81">
         <v>5555</v>
       </c>
-      <c r="E330" s="302">
+      <c r="E330" s="314">
         <v>43616</v>
       </c>
-      <c r="F330" s="302"/>
+      <c r="F330" s="314"/>
       <c r="G330" s="82">
         <v>1</v>
       </c>
@@ -23076,14 +23193,14 @@
       <c r="N330" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="O330" s="299" t="s">
+      <c r="O330" s="315" t="s">
         <v>135</v>
       </c>
-      <c r="P330" s="299"/>
-      <c r="Q330" s="295" t="s">
+      <c r="P330" s="315"/>
+      <c r="Q330" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="R330" s="295"/>
+      <c r="R330" s="316"/>
       <c r="S330" s="110">
         <v>0</v>
       </c>
@@ -23102,10 +23219,10 @@
       <c r="D331" s="85">
         <v>3333</v>
       </c>
-      <c r="E331" s="300">
+      <c r="E331" s="310">
         <v>43595</v>
       </c>
-      <c r="F331" s="300"/>
+      <c r="F331" s="310"/>
       <c r="G331" s="77">
         <v>1</v>
       </c>
@@ -23130,14 +23247,14 @@
       <c r="N331" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="O331" s="296" t="s">
+      <c r="O331" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="P331" s="296"/>
-      <c r="Q331" s="287" t="s">
+      <c r="P331" s="311"/>
+      <c r="Q331" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="R331" s="287"/>
+      <c r="R331" s="312"/>
       <c r="S331" s="108">
         <v>5.7599999999999998E-2</v>
       </c>
@@ -23158,10 +23275,10 @@
       <c r="D332" s="80">
         <v>3333</v>
       </c>
-      <c r="E332" s="301">
+      <c r="E332" s="307">
         <v>43616</v>
       </c>
-      <c r="F332" s="301"/>
+      <c r="F332" s="307"/>
       <c r="G332" s="74">
         <v>1</v>
       </c>
@@ -23186,14 +23303,14 @@
       <c r="N332" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="O332" s="297" t="s">
+      <c r="O332" s="313" t="s">
         <v>143</v>
       </c>
-      <c r="P332" s="297"/>
-      <c r="Q332" s="294" t="s">
+      <c r="P332" s="313"/>
+      <c r="Q332" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R332" s="294"/>
+      <c r="R332" s="309"/>
       <c r="S332" s="109">
         <v>0</v>
       </c>
@@ -23212,10 +23329,10 @@
       <c r="D333" s="80">
         <v>4444</v>
       </c>
-      <c r="E333" s="301">
+      <c r="E333" s="307">
         <v>43616</v>
       </c>
-      <c r="F333" s="301"/>
+      <c r="F333" s="307"/>
       <c r="G333" s="74">
         <v>1</v>
       </c>
@@ -23240,14 +23357,14 @@
       <c r="N333" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="O333" s="298" t="s">
+      <c r="O333" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="P333" s="298"/>
-      <c r="Q333" s="294" t="s">
+      <c r="P333" s="308"/>
+      <c r="Q333" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="R333" s="294"/>
+      <c r="R333" s="309"/>
       <c r="S333" s="109">
         <v>0</v>
       </c>
@@ -23266,10 +23383,10 @@
       <c r="D334" s="81">
         <v>5555</v>
       </c>
-      <c r="E334" s="302">
+      <c r="E334" s="314">
         <v>43616</v>
       </c>
-      <c r="F334" s="302"/>
+      <c r="F334" s="314"/>
       <c r="G334" s="82">
         <v>1</v>
       </c>
@@ -23294,14 +23411,14 @@
       <c r="N334" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="O334" s="299" t="s">
+      <c r="O334" s="315" t="s">
         <v>145</v>
       </c>
-      <c r="P334" s="299"/>
-      <c r="Q334" s="295" t="s">
+      <c r="P334" s="315"/>
+      <c r="Q334" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="R334" s="295"/>
+      <c r="R334" s="316"/>
       <c r="S334" s="110">
         <v>0</v>
       </c>
@@ -23313,6 +23430,403 @@
     <row r="335" spans="2:21" hidden="1"/>
   </sheetData>
   <mergeCells count="421">
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F247:G248"/>
+    <mergeCell ref="F249:G250"/>
+    <mergeCell ref="H247:I248"/>
+    <mergeCell ref="H249:I250"/>
+    <mergeCell ref="J245:K246"/>
+    <mergeCell ref="S245:T246"/>
+    <mergeCell ref="R78:S79"/>
+    <mergeCell ref="P245:Q246"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="J190:K191"/>
+    <mergeCell ref="C264:E265"/>
+    <mergeCell ref="J258:K259"/>
+    <mergeCell ref="P258:Q259"/>
+    <mergeCell ref="S258:T259"/>
+    <mergeCell ref="C260:E261"/>
+    <mergeCell ref="F260:G261"/>
+    <mergeCell ref="H260:I261"/>
+    <mergeCell ref="C262:E263"/>
+    <mergeCell ref="F262:G263"/>
+    <mergeCell ref="H262:I263"/>
+    <mergeCell ref="C247:E248"/>
+    <mergeCell ref="C249:E250"/>
+    <mergeCell ref="C251:E252"/>
+    <mergeCell ref="J134:K135"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="H290:H291"/>
+    <mergeCell ref="I290:I291"/>
+    <mergeCell ref="J290:J291"/>
+    <mergeCell ref="K290:K291"/>
+    <mergeCell ref="L290:L291"/>
+    <mergeCell ref="M290:M291"/>
+    <mergeCell ref="N290:N291"/>
+    <mergeCell ref="Q290:R291"/>
+    <mergeCell ref="S290:S291"/>
+    <mergeCell ref="W279:AC279"/>
+    <mergeCell ref="Q292:R292"/>
+    <mergeCell ref="B279:L279"/>
+    <mergeCell ref="B283:N283"/>
+    <mergeCell ref="Q293:R293"/>
+    <mergeCell ref="Q294:R294"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O290:P291"/>
+    <mergeCell ref="O292:P292"/>
+    <mergeCell ref="O293:P293"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="O295:P295"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E290:F291"/>
+    <mergeCell ref="B289:U289"/>
+    <mergeCell ref="T290:T291"/>
+    <mergeCell ref="U290:U291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="D290:D291"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="O300:P300"/>
+    <mergeCell ref="Q300:R300"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="O319:P319"/>
+    <mergeCell ref="Q319:R319"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="O301:P301"/>
+    <mergeCell ref="Q301:R301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="O302:P302"/>
+    <mergeCell ref="Q302:R302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="O303:P303"/>
+    <mergeCell ref="Q303:R303"/>
+    <mergeCell ref="L317:L318"/>
+    <mergeCell ref="M317:M318"/>
+    <mergeCell ref="N317:N318"/>
+    <mergeCell ref="O317:P318"/>
+    <mergeCell ref="Q317:R318"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="O321:P321"/>
+    <mergeCell ref="Q321:R321"/>
+    <mergeCell ref="S317:S318"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="O304:P304"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="D317:D318"/>
+    <mergeCell ref="E317:F318"/>
+    <mergeCell ref="G317:G318"/>
+    <mergeCell ref="H317:H318"/>
+    <mergeCell ref="I317:I318"/>
+    <mergeCell ref="J317:J318"/>
+    <mergeCell ref="K317:K318"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="O332:P332"/>
+    <mergeCell ref="Q332:R332"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="O333:P333"/>
+    <mergeCell ref="Q333:R333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="O334:P334"/>
+    <mergeCell ref="Q334:R334"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="O331:P331"/>
+    <mergeCell ref="Q331:R331"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="O327:P327"/>
+    <mergeCell ref="Q327:R327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="O328:P328"/>
+    <mergeCell ref="Q328:R328"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="O329:P329"/>
+    <mergeCell ref="Q329:R329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="O330:P330"/>
+    <mergeCell ref="Q330:R330"/>
+    <mergeCell ref="T317:T318"/>
+    <mergeCell ref="U317:U318"/>
+    <mergeCell ref="B316:U316"/>
+    <mergeCell ref="B324:U324"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="E325:F326"/>
+    <mergeCell ref="G325:G326"/>
+    <mergeCell ref="H325:H326"/>
+    <mergeCell ref="I325:I326"/>
+    <mergeCell ref="J325:J326"/>
+    <mergeCell ref="K325:K326"/>
+    <mergeCell ref="L325:L326"/>
+    <mergeCell ref="M325:M326"/>
+    <mergeCell ref="N325:N326"/>
+    <mergeCell ref="O325:P326"/>
+    <mergeCell ref="Q325:R326"/>
+    <mergeCell ref="S325:S326"/>
+    <mergeCell ref="T325:T326"/>
+    <mergeCell ref="U325:U326"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="O320:P320"/>
+    <mergeCell ref="Q320:R320"/>
+    <mergeCell ref="Y189:Z189"/>
+    <mergeCell ref="AA189:AB189"/>
+    <mergeCell ref="AC189:AD189"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="R148:S148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="Y191:Z191"/>
+    <mergeCell ref="AA191:AB191"/>
+    <mergeCell ref="AC191:AD191"/>
+    <mergeCell ref="Y190:Z190"/>
+    <mergeCell ref="AA190:AB190"/>
+    <mergeCell ref="AC190:AD190"/>
+    <mergeCell ref="Y199:Z199"/>
+    <mergeCell ref="AA199:AB199"/>
+    <mergeCell ref="AC199:AD199"/>
+    <mergeCell ref="Y198:Z198"/>
+    <mergeCell ref="AA198:AB198"/>
+    <mergeCell ref="AC198:AD198"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="E195:F196"/>
+    <mergeCell ref="O195:P196"/>
+    <mergeCell ref="Y196:Z196"/>
+    <mergeCell ref="AA196:AB196"/>
+    <mergeCell ref="AC196:AD196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="Y197:Z197"/>
+    <mergeCell ref="AA197:AB197"/>
+    <mergeCell ref="AC197:AD197"/>
+    <mergeCell ref="B200:C201"/>
+    <mergeCell ref="D200:E201"/>
+    <mergeCell ref="F200:G201"/>
+    <mergeCell ref="H200:I201"/>
+    <mergeCell ref="L200:M201"/>
+    <mergeCell ref="N200:O201"/>
+    <mergeCell ref="P200:Q201"/>
+    <mergeCell ref="R200:S201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="P202:Q202"/>
+    <mergeCell ref="R202:S202"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AC146:AD146"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y142:Z142"/>
+    <mergeCell ref="AA142:AB142"/>
+    <mergeCell ref="AC142:AD142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="Y144:Z144"/>
+    <mergeCell ref="AA144:AB144"/>
+    <mergeCell ref="AC144:AD144"/>
+    <mergeCell ref="Y141:Z141"/>
+    <mergeCell ref="AA141:AB141"/>
+    <mergeCell ref="AC141:AD141"/>
+    <mergeCell ref="Y143:Z143"/>
+    <mergeCell ref="AA143:AB143"/>
+    <mergeCell ref="D78:E79"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="H78:I79"/>
+    <mergeCell ref="L78:M79"/>
+    <mergeCell ref="N78:O79"/>
+    <mergeCell ref="P78:Q79"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="AC143:AD143"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="E139:F140"/>
+    <mergeCell ref="O139:P140"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="B146:C147"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="F146:G147"/>
+    <mergeCell ref="H146:I147"/>
+    <mergeCell ref="L146:M147"/>
+    <mergeCell ref="N146:O147"/>
+    <mergeCell ref="P146:Q147"/>
+    <mergeCell ref="R146:S147"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="Y145:Z145"/>
+    <mergeCell ref="O143:P143"/>
     <mergeCell ref="AA145:AB145"/>
     <mergeCell ref="AC145:AD145"/>
     <mergeCell ref="Y146:Z146"/>
@@ -23337,403 +23851,6 @@
     <mergeCell ref="N150:O150"/>
     <mergeCell ref="P150:Q150"/>
     <mergeCell ref="R150:S150"/>
-    <mergeCell ref="B146:C147"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="F146:G147"/>
-    <mergeCell ref="H146:I147"/>
-    <mergeCell ref="L146:M147"/>
-    <mergeCell ref="N146:O147"/>
-    <mergeCell ref="P146:Q147"/>
-    <mergeCell ref="R146:S147"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="Y145:Z145"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="AC143:AD143"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="E139:F140"/>
-    <mergeCell ref="O139:P140"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="AC146:AD146"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Y142:Z142"/>
-    <mergeCell ref="AA142:AB142"/>
-    <mergeCell ref="AC142:AD142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="Y144:Z144"/>
-    <mergeCell ref="AA144:AB144"/>
-    <mergeCell ref="AC144:AD144"/>
-    <mergeCell ref="Y141:Z141"/>
-    <mergeCell ref="AA141:AB141"/>
-    <mergeCell ref="AC141:AD141"/>
-    <mergeCell ref="Y143:Z143"/>
-    <mergeCell ref="AA143:AB143"/>
-    <mergeCell ref="D78:E79"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="H78:I79"/>
-    <mergeCell ref="L78:M79"/>
-    <mergeCell ref="N78:O79"/>
-    <mergeCell ref="P78:Q79"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B200:C201"/>
-    <mergeCell ref="D200:E201"/>
-    <mergeCell ref="F200:G201"/>
-    <mergeCell ref="H200:I201"/>
-    <mergeCell ref="L200:M201"/>
-    <mergeCell ref="N200:O201"/>
-    <mergeCell ref="P200:Q201"/>
-    <mergeCell ref="R200:S201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="P202:Q202"/>
-    <mergeCell ref="R202:S202"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="E195:F196"/>
-    <mergeCell ref="O195:P196"/>
-    <mergeCell ref="Y196:Z196"/>
-    <mergeCell ref="AA196:AB196"/>
-    <mergeCell ref="AC196:AD196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="Y197:Z197"/>
-    <mergeCell ref="AA197:AB197"/>
-    <mergeCell ref="AC197:AD197"/>
-    <mergeCell ref="Y191:Z191"/>
-    <mergeCell ref="AA191:AB191"/>
-    <mergeCell ref="AC191:AD191"/>
-    <mergeCell ref="Y190:Z190"/>
-    <mergeCell ref="AA190:AB190"/>
-    <mergeCell ref="AC190:AD190"/>
-    <mergeCell ref="Y199:Z199"/>
-    <mergeCell ref="AA199:AB199"/>
-    <mergeCell ref="AC199:AD199"/>
-    <mergeCell ref="Y198:Z198"/>
-    <mergeCell ref="AA198:AB198"/>
-    <mergeCell ref="AC198:AD198"/>
-    <mergeCell ref="Y189:Z189"/>
-    <mergeCell ref="AA189:AB189"/>
-    <mergeCell ref="AC189:AD189"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="R148:S148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="T317:T318"/>
-    <mergeCell ref="U317:U318"/>
-    <mergeCell ref="B316:U316"/>
-    <mergeCell ref="B324:U324"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="E325:F326"/>
-    <mergeCell ref="G325:G326"/>
-    <mergeCell ref="H325:H326"/>
-    <mergeCell ref="I325:I326"/>
-    <mergeCell ref="J325:J326"/>
-    <mergeCell ref="K325:K326"/>
-    <mergeCell ref="L325:L326"/>
-    <mergeCell ref="M325:M326"/>
-    <mergeCell ref="N325:N326"/>
-    <mergeCell ref="O325:P326"/>
-    <mergeCell ref="Q325:R326"/>
-    <mergeCell ref="S325:S326"/>
-    <mergeCell ref="T325:T326"/>
-    <mergeCell ref="U325:U326"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="O320:P320"/>
-    <mergeCell ref="Q320:R320"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="O331:P331"/>
-    <mergeCell ref="Q331:R331"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="O327:P327"/>
-    <mergeCell ref="Q327:R327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="O328:P328"/>
-    <mergeCell ref="Q328:R328"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="O329:P329"/>
-    <mergeCell ref="Q329:R329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="O330:P330"/>
-    <mergeCell ref="Q330:R330"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="O332:P332"/>
-    <mergeCell ref="Q332:R332"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="O333:P333"/>
-    <mergeCell ref="Q333:R333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="O334:P334"/>
-    <mergeCell ref="Q334:R334"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="O321:P321"/>
-    <mergeCell ref="Q321:R321"/>
-    <mergeCell ref="S317:S318"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="O304:P304"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="D317:D318"/>
-    <mergeCell ref="E317:F318"/>
-    <mergeCell ref="G317:G318"/>
-    <mergeCell ref="H317:H318"/>
-    <mergeCell ref="I317:I318"/>
-    <mergeCell ref="J317:J318"/>
-    <mergeCell ref="K317:K318"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="O300:P300"/>
-    <mergeCell ref="Q300:R300"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="O319:P319"/>
-    <mergeCell ref="Q319:R319"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="O301:P301"/>
-    <mergeCell ref="Q301:R301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="O302:P302"/>
-    <mergeCell ref="Q302:R302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="O303:P303"/>
-    <mergeCell ref="Q303:R303"/>
-    <mergeCell ref="L317:L318"/>
-    <mergeCell ref="M317:M318"/>
-    <mergeCell ref="N317:N318"/>
-    <mergeCell ref="O317:P318"/>
-    <mergeCell ref="Q317:R318"/>
-    <mergeCell ref="W279:AC279"/>
-    <mergeCell ref="Q292:R292"/>
-    <mergeCell ref="B279:L279"/>
-    <mergeCell ref="B283:N283"/>
-    <mergeCell ref="Q293:R293"/>
-    <mergeCell ref="Q294:R294"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O290:P291"/>
-    <mergeCell ref="O292:P292"/>
-    <mergeCell ref="O293:P293"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="O295:P295"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E290:F291"/>
-    <mergeCell ref="B289:U289"/>
-    <mergeCell ref="T290:T291"/>
-    <mergeCell ref="U290:U291"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="D290:D291"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="H290:H291"/>
-    <mergeCell ref="I290:I291"/>
-    <mergeCell ref="J290:J291"/>
-    <mergeCell ref="K290:K291"/>
-    <mergeCell ref="L290:L291"/>
-    <mergeCell ref="M290:M291"/>
-    <mergeCell ref="N290:N291"/>
-    <mergeCell ref="Q290:R291"/>
-    <mergeCell ref="S290:S291"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="C247:E248"/>
-    <mergeCell ref="C249:E250"/>
-    <mergeCell ref="C251:E252"/>
-    <mergeCell ref="J134:K135"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="C264:E265"/>
-    <mergeCell ref="J258:K259"/>
-    <mergeCell ref="P258:Q259"/>
-    <mergeCell ref="S258:T259"/>
-    <mergeCell ref="C260:E261"/>
-    <mergeCell ref="F260:G261"/>
-    <mergeCell ref="H260:I261"/>
-    <mergeCell ref="C262:E263"/>
-    <mergeCell ref="F262:G263"/>
-    <mergeCell ref="H262:I263"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F247:G248"/>
-    <mergeCell ref="F249:G250"/>
-    <mergeCell ref="H247:I248"/>
-    <mergeCell ref="H249:I250"/>
-    <mergeCell ref="J245:K246"/>
-    <mergeCell ref="S245:T246"/>
-    <mergeCell ref="R78:S79"/>
-    <mergeCell ref="P245:Q246"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="J190:K191"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="R81:S81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
